--- a/Technology/Software/MongoDB.xlsx
+++ b/Technology/Software/MongoDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF8000E-6435-CF4E-A44A-0C20401C8764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B50CE9-04A7-9341-8375-70F02EF172B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -537,9 +537,6 @@
     <t>Equity Value</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>Intrinsic Value</t>
   </si>
   <si>
@@ -550,18 +547,25 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -898,7 +902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -939,9 +943,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -950,12 +951,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1036,6 +1031,17 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,6 +1058,1092 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>MDB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6106250877112591E-2"/>
+          <c:y val="0.1225373745187197"/>
+          <c:w val="0.87170362337139584"/>
+          <c:h val="0.7609528151043965"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>65271000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101358000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154519000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>267016000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>421720000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590380000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>873782000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1284000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFC8-0B4B-BA0E-AA2472D19531}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EBITDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-68958000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-82202000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-91361000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-86247000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-135421000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-182054000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-285244000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50909000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EFC8-0B4B-BA0E-AA2472D19531}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Free Cash Flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$106:$I$106</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-47429000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-39761000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-47016000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-48837000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-33104000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-54446000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1092000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-20214000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EFC8-0B4B-BA0E-AA2472D19531}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="698407487"/>
+        <c:axId val="698442431"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="698407487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="698442431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="698442431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,###,,;\(#,###,,\);\ \-\ \-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="698407487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35570447320745918"/>
+          <c:y val="0.91672957816446143"/>
+          <c:w val="0.29902907873537982"/>
+          <c:h val="5.0955083637223432E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45358</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>7256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1614714</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5EF9A1-E19F-C83B-4CF6-4A0D8EC1FC2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1201,13 +2293,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>420.96</v>
+    <v>390.84</v>
     <v>135.15</v>
-    <v>1.0623</v>
-    <v>6.34</v>
-    <v>2.7989E-2</v>
-    <v>0.01</v>
-    <v>4.2939999999999999E-5</v>
+    <v>1.0246999999999999</v>
+    <v>7.33</v>
+    <v>2.6407E-2</v>
+    <v>-0.41</v>
+    <v>-1.439E-3</v>
     <v>USD</v>
     <v>MongoDB, Inc. is a developer data platform company. Its developer data platform is an integrated set of databases and related services that allow development teams to address the growing variety of modern application requirements. Its core offerings are MongoDB Atlas and MongoDB Enterprise Advanced. MongoDB Atlas is its managed multi-cloud database-as-a-service offering that includes an integrated set of database and related services. MongoDB Atlas provides customers with a managed offering that includes automated provisioning and healing, comprehensive system monitoring, managed backup and restore, default security and other features. MongoDB Enterprise Advanced is its self-managed commercial offering for enterprise customers that can run in the cloud, on-premises or in a hybrid environment. It provides professional services to its customers, including consulting and training. It has over 40,800 customers spanning a range of industries in more than 100 countries around the world.</v>
     <v>4619</v>
@@ -1215,25 +2307,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1633 Broadway Fl 38, NEW YORK, NY, 10019-6763 US</v>
-    <v>234.68</v>
+    <v>293.27999999999997</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.998324120315</v>
+    <v>45071.997739664061</v>
     <v>4</v>
-    <v>227.6</v>
-    <v>16308860000</v>
+    <v>277.45999999999998</v>
+    <v>20095075532</v>
     <v>MONGODB, INC.</v>
     <v>MONGODB, INC.</v>
-    <v>229</v>
-    <v>226.52</v>
-    <v>232.86</v>
-    <v>232.87</v>
-    <v>70037190</v>
+    <v>283.2</v>
+    <v>277.58</v>
+    <v>284.91000000000003</v>
+    <v>284.5</v>
+    <v>70531310</v>
     <v>MDB</v>
     <v>MONGODB, INC. (XNAS:MDB)</v>
-    <v>1222921</v>
-    <v>1272725</v>
+    <v>2150418</v>
+    <v>1702370</v>
     <v>2007</v>
   </rv>
   <rv s="4">
@@ -1415,9 +2507,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -1853,10 +2945,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M93" sqref="M93"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1895,19 +2987,19 @@
       <c r="I1" s="8">
         <v>2023</v>
       </c>
-      <c r="J1" s="26">
+      <c r="J1" s="25">
         <v>2024</v>
       </c>
-      <c r="K1" s="26">
+      <c r="K1" s="25">
         <v>2025</v>
       </c>
-      <c r="L1" s="26">
+      <c r="L1" s="25">
         <v>2026</v>
       </c>
-      <c r="M1" s="26">
+      <c r="M1" s="25">
         <v>2027</v>
       </c>
-      <c r="N1" s="26">
+      <c r="N1" s="25">
         <v>2028</v>
       </c>
     </row>
@@ -1981,19 +3073,19 @@
       <c r="I3" s="1">
         <v>1284000000</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="26">
         <v>1490000000</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="26">
         <v>2002000000</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="26">
         <v>2641000000</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="26">
         <v>3360000000</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="26">
         <v>3360000000</v>
       </c>
       <c r="O3" s="20" t="s">
@@ -2234,7 +3326,7 @@
       <c r="I8" s="1">
         <v>421692000</v>
       </c>
-      <c r="J8" s="31"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1">
       <c r="A9" s="14" t="s">
@@ -2449,7 +3541,7 @@
         <f>I22/(I72+I56+I61)</f>
         <v>-0.17721860019518559</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="68">
         <f>I67/I72</f>
         <v>2.5008316340053116</v>
       </c>
@@ -2553,24 +3645,24 @@
         <f>I15+I5</f>
         <v>1630691000</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="27">
         <f>(I35+H35+G35+F35+E35)/5</f>
         <v>0.29651737992603422</v>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="66">
         <f>Q101/I3</f>
-        <v>12.701604361370716</v>
-      </c>
-      <c r="Q16" s="29">
+        <v>15.650370352024922</v>
+      </c>
+      <c r="Q16" s="66">
         <f>Q101/I28</f>
-        <v>-47.217586668133571</v>
-      </c>
-      <c r="R16" s="30">
+        <v>-58.17947854938361</v>
+      </c>
+      <c r="R16" s="67">
         <f>Q101/I106</f>
-        <v>-806.81013159196596</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="19">
+        <v>-994.11672761452462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="19">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2599,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="20">
+    <row r="18" spans="1:16" ht="20">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -2630,8 +3722,11 @@
       <c r="O18" s="20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="19">
+      <c r="P18" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="19">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2659,12 +3754,16 @@
       <c r="I19" s="10">
         <v>50909000</v>
       </c>
-      <c r="O19" s="32">
+      <c r="O19" s="29">
         <f>I40-I56-I61</f>
         <v>620051000</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1">
+      <c r="P19" s="66">
+        <f>Q101/J3</f>
+        <v>13.486627873825503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="19" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -2698,7 +3797,7 @@
         <v>-1.1784752702949055</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="19">
+    <row r="21" spans="1:16" ht="19">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -2728,7 +3827,7 @@
         <v>3.9648753894080999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="19">
+    <row r="22" spans="1:16" ht="19">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -2757,7 +3856,7 @@
         <v>-346655000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="19">
+    <row r="23" spans="1:16" ht="19">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -2787,7 +3886,7 @@
         <v>-0.26998052959501556</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="19">
+    <row r="24" spans="1:16" ht="19">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -2816,7 +3915,7 @@
         <v>13401000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="19">
+    <row r="25" spans="1:16" ht="19">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -2845,7 +3944,7 @@
         <v>-333254000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="19">
+    <row r="26" spans="1:16" ht="19">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -2874,7 +3973,7 @@
         <v>-0.34660000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="19">
+    <row r="27" spans="1:16" ht="19">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -2903,7 +4002,7 @@
         <v>12144000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="20" thickBot="1">
+    <row r="28" spans="1:16" ht="20" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -2932,7 +4031,7 @@
         <v>-345398000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="20" customHeight="1" thickTop="1">
+    <row r="29" spans="1:16" ht="20" customHeight="1" thickTop="1">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -2966,7 +4065,7 @@
         <v>0.12556620805172281</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="19">
+    <row r="30" spans="1:16" ht="19">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -2995,7 +4094,7 @@
         <v>-0.35120000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19">
+    <row r="31" spans="1:16" ht="19">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3024,7 +4123,7 @@
         <v>-5.03</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="19">
+    <row r="32" spans="1:16" ht="19">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3116,31 +4215,31 @@
         <v>103</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <f>(C34-B34)/B34</f>
         <v>-5.5295227779249105E-2</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="22">
         <f t="shared" ref="D35:I35" si="6">(D34-C34)/C34</f>
         <v>-0.3769470805153512</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <f t="shared" si="6"/>
         <v>1.1938501646254167</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <f t="shared" si="6"/>
         <v>7.5035386072758212E-2</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="22">
         <f t="shared" si="6"/>
         <v>5.4444488778425768E-2</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="22">
         <f t="shared" si="6"/>
         <v>0.12548655917059306</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <f t="shared" si="6"/>
         <v>3.3770300982977244E-2</v>
       </c>
@@ -4551,10 +5650,10 @@
       <c r="I83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P83" s="63" t="s">
+      <c r="P83" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="Q83" s="64"/>
+      <c r="Q83" s="61"/>
     </row>
     <row r="84" spans="1:17" ht="19">
       <c r="A84" s="5" t="s">
@@ -4584,10 +5683,10 @@
       <c r="I84" s="1">
         <v>3161000</v>
       </c>
-      <c r="P84" s="65" t="s">
+      <c r="P84" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="Q84" s="66"/>
+      <c r="Q84" s="63"/>
     </row>
     <row r="85" spans="1:17" ht="19" customHeight="1">
       <c r="A85" s="5" t="s">
@@ -4617,10 +5716,10 @@
       <c r="I85" s="1">
         <v>32978000</v>
       </c>
-      <c r="P85" s="33" t="s">
+      <c r="P85" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="Q85" s="34">
+      <c r="Q85" s="31">
         <f>I17</f>
         <v>0</v>
       </c>
@@ -4653,10 +5752,10 @@
       <c r="I86" s="1">
         <v>34882000</v>
       </c>
-      <c r="P86" s="33" t="s">
+      <c r="P86" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="Q86" s="34">
+      <c r="Q86" s="31">
         <f>I56</f>
         <v>8686000</v>
       </c>
@@ -4689,10 +5788,10 @@
       <c r="I87" s="10">
         <v>-12970000</v>
       </c>
-      <c r="P87" s="33" t="s">
+      <c r="P87" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="Q87" s="34">
+      <c r="Q87" s="31">
         <f>I61</f>
         <v>1207893000</v>
       </c>
@@ -4725,10 +5824,10 @@
       <c r="I88" s="1">
         <v>-7244000</v>
       </c>
-      <c r="P88" s="35" t="s">
+      <c r="P88" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="Q88" s="36">
+      <c r="Q88" s="33">
         <f>Q85/(Q86+Q87)</f>
         <v>0</v>
       </c>
@@ -4769,10 +5868,10 @@
         <f t="shared" ref="I89" si="10">(-1*I88)/I3</f>
         <v>5.6417445482866042E-3</v>
       </c>
-      <c r="P89" s="33" t="s">
+      <c r="P89" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="Q89" s="34">
+      <c r="Q89" s="31">
         <f>I27</f>
         <v>12144000</v>
       </c>
@@ -4805,10 +5904,10 @@
       <c r="I90" s="1">
         <v>0</v>
       </c>
-      <c r="P90" s="33" t="s">
+      <c r="P90" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q90" s="34">
+      <c r="Q90" s="31">
         <f>I25</f>
         <v>-333254000</v>
       </c>
@@ -4841,10 +5940,10 @@
       <c r="I91" s="1">
         <v>-1444796600</v>
       </c>
-      <c r="P91" s="35" t="s">
+      <c r="P91" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="Q91" s="36">
+      <c r="Q91" s="33">
         <f>Q89/Q90</f>
         <v>-3.6440672880145478E-2</v>
       </c>
@@ -4877,10 +5976,10 @@
       <c r="I92" s="1">
         <v>1425000000</v>
       </c>
-      <c r="P92" s="37" t="s">
+      <c r="P92" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="Q92" s="38">
+      <c r="Q92" s="35">
         <f>Q88*(1-Q91)</f>
         <v>0</v>
       </c>
@@ -4913,10 +6012,10 @@
       <c r="I93" s="1">
         <v>-3098000</v>
       </c>
-      <c r="P93" s="65" t="s">
+      <c r="P93" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="Q93" s="66"/>
+      <c r="Q93" s="63"/>
     </row>
     <row r="94" spans="1:17" ht="19" customHeight="1">
       <c r="A94" s="6" t="s">
@@ -4946,10 +6045,10 @@
       <c r="I94" s="10">
         <v>-33308000</v>
       </c>
-      <c r="P94" s="33" t="s">
+      <c r="P94" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="Q94" s="39">
+      <c r="Q94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -4981,12 +6080,12 @@
       <c r="I95" s="1">
         <v>-4510000</v>
       </c>
-      <c r="P95" s="33" t="s">
+      <c r="P95" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="Q95" s="40" cm="1">
+      <c r="Q95" s="37" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.0623</v>
+        <v>1.0246999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20">
@@ -5017,10 +6116,10 @@
       <c r="I96" s="1">
         <v>34710000</v>
       </c>
-      <c r="P96" s="33" t="s">
+      <c r="P96" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="Q96" s="39">
+      <c r="Q96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5052,12 +6151,12 @@
       <c r="I97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P97" s="37" t="s">
+      <c r="P97" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="Q97" s="38">
+      <c r="Q97" s="35">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>8.6682015000000001E-2</v>
+        <v>8.5063335000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19">
@@ -5088,10 +6187,10 @@
       <c r="I98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P98" s="65" t="s">
+      <c r="P98" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="Q98" s="66"/>
+      <c r="Q98" s="63"/>
     </row>
     <row r="99" spans="1:21" ht="19" customHeight="1">
       <c r="A99" s="5" t="s">
@@ -5121,10 +6220,10 @@
       <c r="I99" s="1">
         <v>0</v>
       </c>
-      <c r="P99" s="33" t="s">
+      <c r="P99" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="Q99" s="34">
+      <c r="Q99" s="31">
         <f>Q86+Q87</f>
         <v>1216579000</v>
       </c>
@@ -5157,12 +6256,12 @@
       <c r="I100" s="10">
         <v>30200000</v>
       </c>
-      <c r="P100" s="35" t="s">
+      <c r="P100" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="Q100" s="36">
+      <c r="Q100" s="33">
         <f>Q99/Q103</f>
-        <v>6.9417890188086015E-2</v>
+        <v>5.7085150201420319E-2</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20">
@@ -5193,12 +6292,12 @@
       <c r="I101" s="1">
         <v>-2003000</v>
       </c>
-      <c r="P101" s="33" t="s">
+      <c r="P101" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="Q101" s="41" cm="1">
+      <c r="Q101" s="38" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>16308860000</v>
+        <v>20095075532</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20">
@@ -5229,12 +6328,12 @@
       <c r="I102" s="10">
         <v>-18081000</v>
       </c>
-      <c r="P102" s="35" t="s">
+      <c r="P102" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="Q102" s="36">
+      <c r="Q102" s="33">
         <f>Q101/Q103</f>
-        <v>0.93058210981191403</v>
+        <v>0.94291484979857965</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20">
@@ -5265,12 +6364,12 @@
       <c r="I103" s="1">
         <v>474000000</v>
       </c>
-      <c r="P103" s="37" t="s">
+      <c r="P103" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="Q103" s="42">
+      <c r="Q103" s="39">
         <f>Q99+Q101</f>
-        <v>17525439000</v>
+        <v>21311654532</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="20" thickBot="1">
@@ -5301,10 +6400,10 @@
       <c r="I104" s="11">
         <v>456339000</v>
       </c>
-      <c r="P104" s="65" t="s">
+      <c r="P104" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="Q104" s="66"/>
+      <c r="Q104" s="63"/>
     </row>
     <row r="105" spans="1:21" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
@@ -5339,18 +6438,28 @@
         <f>(I106/H106)-1</f>
         <v>17.510989010989011</v>
       </c>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
+      <c r="J105" s="64">
+        <v>112500000</v>
+      </c>
+      <c r="K105" s="64">
+        <v>171300000</v>
+      </c>
+      <c r="L105" s="64">
+        <v>288400000</v>
+      </c>
+      <c r="M105" s="64">
+        <v>451900000</v>
+      </c>
+      <c r="N105" s="64">
+        <v>629100000</v>
+      </c>
       <c r="O105" s="15"/>
-      <c r="P105" s="24" t="s">
+      <c r="P105" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Q105" s="25">
+      <c r="Q105" s="24">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>8.0664732401447975E-2</v>
+        <v>8.0207481744891271E-2</v>
       </c>
       <c r="R105" s="15"/>
       <c r="S105" s="15"/>
@@ -5385,33 +6494,33 @@
       <c r="I106" s="1">
         <v>-20214000</v>
       </c>
-      <c r="J106" s="43">
+      <c r="J106" s="40">
         <f>I106*(1+$Q$106)</f>
         <v>-24642832.737025272</v>
       </c>
-      <c r="K106" s="43">
+      <c r="K106" s="40">
         <f t="shared" ref="K106:N106" si="12">J106*(1+$Q$106)</f>
         <v>-30042010.750222839</v>
       </c>
-      <c r="L106" s="43">
+      <c r="L106" s="40">
         <f t="shared" si="12"/>
         <v>-36624134.065581113</v>
       </c>
-      <c r="M106" s="43">
+      <c r="M106" s="40">
         <f t="shared" si="12"/>
         <v>-44648382.799866669</v>
       </c>
-      <c r="N106" s="43">
+      <c r="N106" s="40">
         <f t="shared" si="12"/>
         <v>-54430722.732551225</v>
       </c>
-      <c r="O106" s="44" t="s">
+      <c r="O106" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="P106" s="45" t="s">
+      <c r="P106" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="Q106" s="46">
+      <c r="Q106" s="43">
         <f>(SUM(J4:N4)/5)</f>
         <v>0.21909729578634968</v>
       </c>
@@ -5422,139 +6531,139 @@
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
-      <c r="J107" s="44"/>
-      <c r="K107" s="44"/>
-      <c r="L107" s="44"/>
-      <c r="M107" s="44"/>
-      <c r="N107" s="47">
-        <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>-1002277176.1211903</v>
-      </c>
-      <c r="O107" s="48" t="s">
+      <c r="J107" s="41"/>
+      <c r="K107" s="41"/>
+      <c r="L107" s="41"/>
+      <c r="M107" s="41"/>
+      <c r="N107" s="65">
+        <f>N105*(1+Q107)/(Q108-Q107)</f>
+        <v>11680074504.750805</v>
+      </c>
+      <c r="O107" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="P107" s="49" t="s">
+      <c r="P107" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="Q107" s="50">
+      <c r="Q107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="19">
-      <c r="J108" s="47">
+      <c r="J108" s="44">
         <f t="shared" ref="J108:L108" si="13">J107+J106</f>
         <v>-24642832.737025272</v>
       </c>
-      <c r="K108" s="47">
+      <c r="K108" s="44">
         <f t="shared" si="13"/>
         <v>-30042010.750222839</v>
       </c>
-      <c r="L108" s="47">
+      <c r="L108" s="44">
         <f t="shared" si="13"/>
         <v>-36624134.065581113</v>
       </c>
-      <c r="M108" s="47">
+      <c r="M108" s="44">
         <f>M107+M106</f>
         <v>-44648382.799866669</v>
       </c>
-      <c r="N108" s="47">
-        <f>N107+N106</f>
-        <v>-1056707898.8537415</v>
-      </c>
-      <c r="O108" s="48" t="s">
+      <c r="N108" s="65">
+        <f>N107+N105</f>
+        <v>12309174504.750805</v>
+      </c>
+      <c r="O108" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="P108" s="51" t="s">
+      <c r="P108" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="Q108" s="52">
+      <c r="Q108" s="49">
         <f>Q105</f>
-        <v>8.0664732401447975E-2</v>
+        <v>8.0207481744891271E-2</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="19">
-      <c r="J109" s="61" t="s">
+      <c r="J109" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="K109" s="62"/>
+      <c r="K109" s="59"/>
     </row>
     <row r="110" spans="1:21" ht="20">
-      <c r="J110" s="53" t="s">
+      <c r="J110" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="K110" s="41">
+      <c r="K110" s="38">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>-827253407.94261312</v>
+        <v>8258966230.6830006</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="20">
-      <c r="J111" s="53" t="s">
+      <c r="J111" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="K111" s="41">
+      <c r="K111" s="38">
         <f>I40</f>
         <v>1836630000</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="20">
-      <c r="J112" s="53" t="s">
+      <c r="J112" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="K112" s="41">
+      <c r="K112" s="38">
         <f>Q99</f>
         <v>1216579000</v>
       </c>
     </row>
     <row r="113" spans="10:11" ht="20">
-      <c r="J113" s="53" t="s">
+      <c r="J113" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="K113" s="41">
+      <c r="K113" s="38">
         <f>K110+K111-K112</f>
-        <v>-207202407.94261312</v>
+        <v>8879017230.6830006</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20">
-      <c r="J114" s="53" t="s">
+      <c r="J114" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="K114" s="51" cm="1">
+        <f t="array" ref="K114">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>70531310</v>
+      </c>
+    </row>
+    <row r="115" spans="10:11" ht="20">
+      <c r="J115" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="K114" s="54">
-        <f>I34*(1+(5*O16))</f>
-        <v>170375636.59852159</v>
-      </c>
-    </row>
-    <row r="115" spans="10:11" ht="20">
-      <c r="J115" s="55" t="s">
+      <c r="K115" s="57">
+        <f>K113/K114</f>
+        <v>125.88759843937396</v>
+      </c>
+    </row>
+    <row r="116" spans="10:11" ht="20">
+      <c r="J116" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="K115" s="60">
-        <f>K113/K114</f>
-        <v>-1.2161504548380428</v>
-      </c>
-    </row>
-    <row r="116" spans="10:11" ht="20">
-      <c r="J116" s="53" t="s">
+      <c r="K116" s="53" cm="1">
+        <f t="array" ref="K116">_FV(A1,"Price")</f>
+        <v>284.91000000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="10:11" ht="20">
+      <c r="J117" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="K116" s="56" cm="1">
-        <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>232.86</v>
-      </c>
-    </row>
-    <row r="117" spans="10:11" ht="20">
-      <c r="J117" s="57" t="s">
+      <c r="K117" s="55">
+        <f>K115/K116-1</f>
+        <v>-0.55814959657655416</v>
+      </c>
+    </row>
+    <row r="118" spans="10:11" ht="20">
+      <c r="J118" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="K117" s="58">
-        <f>K115/K116-1</f>
-        <v>-1.0052226679328267</v>
-      </c>
-    </row>
-    <row r="118" spans="10:11" ht="20">
-      <c r="J118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="K118" s="59" t="str">
+      <c r="K118" s="56" t="str">
         <f>IF(K115&gt;K116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -5588,5 +6697,6 @@
     <hyperlink ref="J1" r:id="rId17" display="https://finbox.com/NASDAQGM:MDB/explorer/revenue_proj" xr:uid="{1ADFDDA7-D30E-E746-A67F-D3A291AA635E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/Technology/Software/MongoDB.xlsx
+++ b/Technology/Software/MongoDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B50CE9-04A7-9341-8375-70F02EF172B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799644FD-13AA-864B-8723-A95B2D32D1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,7 +565,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1013,6 +1013,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1030,17 +1041,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2295,11 +2295,11 @@
     <v>Powered by Refinitiv</v>
     <v>390.84</v>
     <v>135.15</v>
-    <v>1.0246999999999999</v>
-    <v>7.33</v>
-    <v>2.6407E-2</v>
-    <v>-0.41</v>
-    <v>-1.439E-3</v>
+    <v>1.0418000000000001</v>
+    <v>-1.55</v>
+    <v>-5.4400000000000004E-3</v>
+    <v>0.59</v>
+    <v>2.0820000000000001E-3</v>
     <v>USD</v>
     <v>MongoDB, Inc. is a developer data platform company. Its developer data platform is an integrated set of databases and related services that allow development teams to address the growing variety of modern application requirements. Its core offerings are MongoDB Atlas and MongoDB Enterprise Advanced. MongoDB Atlas is its managed multi-cloud database-as-a-service offering that includes an integrated set of database and related services. MongoDB Atlas provides customers with a managed offering that includes automated provisioning and healing, comprehensive system monitoring, managed backup and restore, default security and other features. MongoDB Enterprise Advanced is its self-managed commercial offering for enterprise customers that can run in the cloud, on-premises or in a hybrid environment. It provides professional services to its customers, including consulting and training. It has over 40,800 customers spanning a range of industries in more than 100 countries around the world.</v>
     <v>4619</v>
@@ -2307,25 +2307,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1633 Broadway Fl 38, NEW YORK, NY, 10019-6763 US</v>
-    <v>293.27999999999997</v>
+    <v>291.63</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.997739664061</v>
+    <v>45072.994569443748</v>
     <v>4</v>
-    <v>277.45999999999998</v>
-    <v>20095075532</v>
+    <v>273.00009999999997</v>
+    <v>19985750000</v>
     <v>MONGODB, INC.</v>
     <v>MONGODB, INC.</v>
-    <v>283.2</v>
-    <v>277.58</v>
+    <v>274.10000000000002</v>
     <v>284.91000000000003</v>
-    <v>284.5</v>
+    <v>283.36</v>
+    <v>283.95</v>
     <v>70531310</v>
     <v>MDB</v>
     <v>MONGODB, INC. (XNAS:MDB)</v>
-    <v>2150418</v>
-    <v>1702370</v>
+    <v>1906714</v>
+    <v>1755005</v>
     <v>2007</v>
   </rv>
   <rv s="4">
@@ -2507,9 +2507,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2945,10 +2945,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3541,7 +3541,7 @@
         <f>I22/(I72+I56+I61)</f>
         <v>-0.17721860019518559</v>
       </c>
-      <c r="R13" s="68">
+      <c r="R13" s="62">
         <f>I67/I72</f>
         <v>2.5008316340053116</v>
       </c>
@@ -3649,17 +3649,17 @@
         <f>(I35+H35+G35+F35+E35)/5</f>
         <v>0.29651737992603422</v>
       </c>
-      <c r="P16" s="66">
+      <c r="P16" s="60">
         <f>Q101/I3</f>
-        <v>15.650370352024922</v>
-      </c>
-      <c r="Q16" s="66">
+        <v>15.56522585669782</v>
+      </c>
+      <c r="Q16" s="60">
         <f>Q101/I28</f>
-        <v>-58.17947854938361</v>
-      </c>
-      <c r="R16" s="67">
+        <v>-57.862958094719716</v>
+      </c>
+      <c r="R16" s="61">
         <f>Q101/I106</f>
-        <v>-994.11672761452462</v>
+        <v>-988.70832096566733</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19">
@@ -3758,9 +3758,9 @@
         <f>I40-I56-I61</f>
         <v>620051000</v>
       </c>
-      <c r="P19" s="66">
+      <c r="P19" s="60">
         <f>Q101/J3</f>
-        <v>13.486627873825503</v>
+        <v>13.413255033557046</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1">
@@ -5650,10 +5650,10 @@
       <c r="I83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P83" s="60" t="s">
+      <c r="P83" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="Q83" s="61"/>
+      <c r="Q83" s="66"/>
     </row>
     <row r="84" spans="1:17" ht="19">
       <c r="A84" s="5" t="s">
@@ -5683,10 +5683,10 @@
       <c r="I84" s="1">
         <v>3161000</v>
       </c>
-      <c r="P84" s="62" t="s">
+      <c r="P84" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="Q84" s="63"/>
+      <c r="Q84" s="68"/>
     </row>
     <row r="85" spans="1:17" ht="19" customHeight="1">
       <c r="A85" s="5" t="s">
@@ -6012,10 +6012,10 @@
       <c r="I93" s="1">
         <v>-3098000</v>
       </c>
-      <c r="P93" s="62" t="s">
+      <c r="P93" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="Q93" s="63"/>
+      <c r="Q93" s="68"/>
     </row>
     <row r="94" spans="1:17" ht="19" customHeight="1">
       <c r="A94" s="6" t="s">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="Q95" s="37" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.0246999999999999</v>
+        <v>1.0418000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20">
@@ -6156,7 +6156,7 @@
       </c>
       <c r="Q97" s="35">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>8.5063335000000004E-2</v>
+        <v>8.5799490000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19">
@@ -6187,10 +6187,10 @@
       <c r="I98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P98" s="62" t="s">
+      <c r="P98" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="Q98" s="63"/>
+      <c r="Q98" s="68"/>
     </row>
     <row r="99" spans="1:21" ht="19" customHeight="1">
       <c r="A99" s="5" t="s">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="Q100" s="33">
         <f>Q99/Q103</f>
-        <v>5.7085150201420319E-2</v>
+        <v>5.7379498261723984E-2</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="Q101" s="38" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>20095075532</v>
+        <v>19985750000</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="Q102" s="33">
         <f>Q101/Q103</f>
-        <v>0.94291484979857965</v>
+        <v>0.94262050173827605</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="Q103" s="39">
         <f>Q99+Q101</f>
-        <v>21311654532</v>
+        <v>21202329000</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="20" thickBot="1">
@@ -6400,10 +6400,10 @@
       <c r="I104" s="11">
         <v>456339000</v>
       </c>
-      <c r="P104" s="62" t="s">
+      <c r="P104" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="Q104" s="63"/>
+      <c r="Q104" s="68"/>
     </row>
     <row r="105" spans="1:21" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
@@ -6438,19 +6438,19 @@
         <f>(I106/H106)-1</f>
         <v>17.510989010989011</v>
       </c>
-      <c r="J105" s="64">
+      <c r="J105" s="58">
         <v>112500000</v>
       </c>
-      <c r="K105" s="64">
+      <c r="K105" s="58">
         <v>171300000</v>
       </c>
-      <c r="L105" s="64">
+      <c r="L105" s="58">
         <v>288400000</v>
       </c>
-      <c r="M105" s="64">
+      <c r="M105" s="58">
         <v>451900000</v>
       </c>
-      <c r="N105" s="64">
+      <c r="N105" s="58">
         <v>629100000</v>
       </c>
       <c r="O105" s="15"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="Q105" s="24">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>8.0207481744891271E-2</v>
+        <v>8.0876358312688204E-2</v>
       </c>
       <c r="R105" s="15"/>
       <c r="S105" s="15"/>
@@ -6535,9 +6535,9 @@
       <c r="K107" s="41"/>
       <c r="L107" s="41"/>
       <c r="M107" s="41"/>
-      <c r="N107" s="65">
+      <c r="N107" s="59">
         <f>N105*(1+Q107)/(Q108-Q107)</f>
-        <v>11680074504.750805</v>
+        <v>11540256370.88763</v>
       </c>
       <c r="O107" s="45" t="s">
         <v>148</v>
@@ -6566,9 +6566,9 @@
         <f>M107+M106</f>
         <v>-44648382.799866669</v>
       </c>
-      <c r="N108" s="65">
+      <c r="N108" s="59">
         <f>N107+N105</f>
-        <v>12309174504.750805</v>
+        <v>12169356370.88763</v>
       </c>
       <c r="O108" s="45" t="s">
         <v>144</v>
@@ -6578,14 +6578,14 @@
       </c>
       <c r="Q108" s="49">
         <f>Q105</f>
-        <v>8.0207481744891271E-2</v>
+        <v>8.0876358312688204E-2</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="19">
-      <c r="J109" s="58" t="s">
+      <c r="J109" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="K109" s="59"/>
+      <c r="K109" s="64"/>
     </row>
     <row r="110" spans="1:21" ht="20">
       <c r="J110" s="50" t="s">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="K110" s="38">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>8258966230.6830006</v>
+        <v>8138510487.4946499</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="20">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="K113" s="38">
         <f>K110+K111-K112</f>
-        <v>8879017230.6830006</v>
+        <v>8758561487.4946499</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="K115" s="57">
         <f>K113/K114</f>
-        <v>125.88759843937396</v>
+        <v>124.17976480933999</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20">
@@ -6647,7 +6647,7 @@
       </c>
       <c r="K116" s="53" cm="1">
         <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>284.91000000000003</v>
+        <v>283.36</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="K117" s="55">
         <f>K115/K116-1</f>
-        <v>-0.55814959657655416</v>
+        <v>-0.56175972328719659</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20">

--- a/Technology/Software/MongoDB.xlsx
+++ b/Technology/Software/MongoDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799644FD-13AA-864B-8723-A95B2D32D1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B5F43-156D-684E-A868-98FE72680F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -553,6 +553,12 @@
   </si>
   <si>
     <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
   </si>
 </sst>
 </file>
@@ -733,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -897,12 +903,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1024,6 +1039,16 @@
     <xf numFmtId="169" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2293,13 +2318,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>390.84</v>
+    <v>398.89</v>
     <v>135.15</v>
-    <v>1.0418000000000001</v>
-    <v>-1.55</v>
-    <v>-5.4400000000000004E-3</v>
-    <v>0.59</v>
-    <v>2.0820000000000001E-3</v>
+    <v>1.0888</v>
+    <v>15.4</v>
+    <v>4.1291000000000001E-2</v>
     <v>USD</v>
     <v>MongoDB, Inc. is a developer data platform company. Its developer data platform is an integrated set of databases and related services that allow development teams to address the growing variety of modern application requirements. Its core offerings are MongoDB Atlas and MongoDB Enterprise Advanced. MongoDB Atlas is its managed multi-cloud database-as-a-service offering that includes an integrated set of database and related services. MongoDB Atlas provides customers with a managed offering that includes automated provisioning and healing, comprehensive system monitoring, managed backup and restore, default security and other features. MongoDB Enterprise Advanced is its self-managed commercial offering for enterprise customers that can run in the cloud, on-premises or in a hybrid environment. It provides professional services to its customers, including consulting and training. It has over 40,800 customers spanning a range of industries in more than 100 countries around the world.</v>
     <v>4619</v>
@@ -2307,25 +2330,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1633 Broadway Fl 38, NEW YORK, NY, 10019-6763 US</v>
-    <v>291.63</v>
+    <v>396.8399</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.994569443748</v>
+    <v>45099.999680717185</v>
     <v>4</v>
-    <v>273.00009999999997</v>
-    <v>19985750000</v>
+    <v>365.11</v>
+    <v>27410984736</v>
     <v>MONGODB, INC.</v>
     <v>MONGODB, INC.</v>
-    <v>274.10000000000002</v>
-    <v>284.91000000000003</v>
-    <v>283.36</v>
-    <v>283.95</v>
-    <v>70531310</v>
+    <v>366.66</v>
+    <v>372.96</v>
+    <v>388.36</v>
+    <v>70581380</v>
     <v>MDB</v>
     <v>MONGODB, INC. (XNAS:MDB)</v>
-    <v>1906714</v>
-    <v>1755005</v>
+    <v>5562</v>
+    <v>2240394</v>
     <v>2007</v>
   </rv>
   <rv s="4">
@@ -2369,8 +2391,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2391,7 +2411,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2408,7 +2427,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2419,16 +2438,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2499,19 +2515,13 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
-      <v>1</v>
-      <v>1</v>
-      <v>6</v>
     </spb>
     <spb s="5">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -2564,9 +2574,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2574,9 +2581,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -2944,11 +2948,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E102" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H127" sqref="H127"/>
+      <selection pane="bottomRight" activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3074,19 +3078,19 @@
         <v>1284000000</v>
       </c>
       <c r="J3" s="26">
-        <v>1490000000</v>
+        <v>1538000000</v>
       </c>
       <c r="K3" s="26">
-        <v>2002000000</v>
+        <v>1847000000</v>
       </c>
       <c r="L3" s="26">
-        <v>2641000000</v>
+        <v>2274000000</v>
       </c>
       <c r="M3" s="26">
-        <v>3360000000</v>
+        <v>2774000000</v>
       </c>
       <c r="N3" s="26">
-        <v>3360000000</v>
+        <v>3496000000</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>109</v>
@@ -3136,23 +3140,23 @@
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.16043613707165116</v>
+        <v>0.19781931464174463</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.34362416107382554</v>
+        <v>0.20091027308192455</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.3191808191808192</v>
+        <v>0.23118570655116399</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27224536160545254</v>
+        <v>0.2198768689533861</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.26027397260273966</v>
       </c>
       <c r="O4" s="17">
         <f>(I4+H4+G4)/3</f>
@@ -3651,18 +3655,18 @@
       </c>
       <c r="P16" s="60">
         <f>Q101/I3</f>
-        <v>15.56522585669782</v>
+        <v>21.34811895327103</v>
       </c>
       <c r="Q16" s="60">
         <f>Q101/I28</f>
-        <v>-57.862958094719716</v>
+        <v>-79.360577467153831</v>
       </c>
       <c r="R16" s="61">
         <f>Q101/I106</f>
-        <v>-988.70832096566733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="19">
+        <v>-1356.0396129415258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="19">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3691,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="20">
+    <row r="18" spans="1:18" ht="20">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3725,8 +3729,14 @@
       <c r="P18" s="21" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="19">
+      <c r="Q18" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="R18" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="19">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3753,17 +3763,40 @@
       </c>
       <c r="I19" s="10">
         <v>50909000</v>
+      </c>
+      <c r="J19" s="66">
+        <v>135700000</v>
+      </c>
+      <c r="K19" s="66">
+        <v>182600000</v>
+      </c>
+      <c r="L19" s="66">
+        <v>273800000</v>
+      </c>
+      <c r="M19" s="66">
+        <v>435000000</v>
+      </c>
+      <c r="N19" s="66">
+        <v>612000000</v>
       </c>
       <c r="O19" s="29">
         <f>I40-I56-I61</f>
         <v>620051000</v>
       </c>
-      <c r="P19" s="60">
+      <c r="P19" s="63">
         <f>Q101/J3</f>
-        <v>13.413255033557046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="19" customHeight="1">
+        <v>17.822486824447335</v>
+      </c>
+      <c r="Q19" s="60">
+        <f>Q101/J28</f>
+        <v>217.20273166402535</v>
+      </c>
+      <c r="R19" s="61">
+        <f>Q101/J105</f>
+        <v>182.73989824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="19" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -3796,8 +3829,28 @@
         <f t="shared" si="4"/>
         <v>-1.1784752702949055</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="19">
+      <c r="J20" s="16">
+        <f t="shared" ref="J20" si="5">(J19/I19)-1</f>
+        <v>1.665540474179418</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" ref="K20" si="6">(K19/J19)-1</f>
+        <v>0.34561532792925576</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" ref="L20" si="7">(L19/K19)-1</f>
+        <v>0.49945235487404172</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" ref="M20" si="8">(M19/L19)-1</f>
+        <v>0.5887509130752373</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" ref="N20" si="9">(N19/M19)-1</f>
+        <v>0.40689655172413786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="19">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3822,12 +3875,32 @@
       <c r="H21" s="2">
         <v>-0.32640000000000002</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="65">
         <f>I19/I3</f>
         <v>3.9648753894080999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="19">
+      <c r="J21" s="67">
+        <f t="shared" ref="J21:N21" si="10">J19/J3</f>
+        <v>8.8231469440832253E-2</v>
+      </c>
+      <c r="K21" s="67">
+        <f t="shared" si="10"/>
+        <v>9.886302111532215E-2</v>
+      </c>
+      <c r="L21" s="67">
+        <f t="shared" si="10"/>
+        <v>0.12040457343887423</v>
+      </c>
+      <c r="M21" s="67">
+        <f t="shared" si="10"/>
+        <v>0.15681326604181686</v>
+      </c>
+      <c r="N21" s="67">
+        <f t="shared" si="10"/>
+        <v>0.17505720823798626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="19">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3852,11 +3925,11 @@
       <c r="H22" s="10">
         <v>-289364000</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="64">
         <v>-346655000</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="19">
+    <row r="23" spans="1:18" ht="19">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3886,7 +3959,7 @@
         <v>-0.26998052959501556</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="19">
+    <row r="24" spans="1:18" ht="19">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3915,7 +3988,7 @@
         <v>13401000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="19">
+    <row r="25" spans="1:18" ht="19">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3944,7 +4017,7 @@
         <v>-333254000</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="19">
+    <row r="26" spans="1:18" ht="19">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3973,7 +4046,7 @@
         <v>-0.34660000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="19">
+    <row r="27" spans="1:18" ht="19">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4002,7 +4075,7 @@
         <v>12144000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="20" thickBot="1">
+    <row r="28" spans="1:18" ht="20" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4030,8 +4103,23 @@
       <c r="I28" s="11">
         <v>-345398000</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="20" customHeight="1" thickTop="1">
+      <c r="J28" s="68">
+        <v>126200000</v>
+      </c>
+      <c r="K28" s="68">
+        <v>171100000</v>
+      </c>
+      <c r="L28" s="68">
+        <v>246000000</v>
+      </c>
+      <c r="M28" s="68">
+        <v>579600000</v>
+      </c>
+      <c r="N28" s="68">
+        <v>813000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="20" customHeight="1" thickTop="1">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -4049,23 +4137,43 @@
         <v>2.7522078892475044E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:I29" si="5">(F28/E28)-1</f>
+        <f t="shared" ref="F29:I29" si="11">(F28/E28)-1</f>
         <v>0.77275252244700088</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.52085778420938689</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.14955196595540632</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.12556620805172281</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="19">
+      <c r="J29" s="16">
+        <f t="shared" ref="J29" si="12">(J28/I28)-1</f>
+        <v>-1.3653755956896103</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" ref="K29" si="13">(K28/J28)-1</f>
+        <v>0.35578446909667205</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" ref="L29" si="14">(L28/K28)-1</f>
+        <v>0.43775569842197548</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" ref="M29" si="15">(M28/L28)-1</f>
+        <v>1.3560975609756096</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" ref="N29" si="16">(N28/M28)-1</f>
+        <v>0.40269151138716364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="19">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4093,8 +4201,28 @@
       <c r="I30" s="2">
         <v>-0.35120000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="19">
+      <c r="J30" s="69">
+        <f>J28/J3</f>
+        <v>8.2054616384915471E-2</v>
+      </c>
+      <c r="K30" s="69">
+        <f t="shared" ref="K30:N30" si="17">K28/K3</f>
+        <v>9.2636708175419594E-2</v>
+      </c>
+      <c r="L30" s="69">
+        <f t="shared" si="17"/>
+        <v>0.10817941952506596</v>
+      </c>
+      <c r="M30" s="69">
+        <f t="shared" si="17"/>
+        <v>0.20894015861571738</v>
+      </c>
+      <c r="N30" s="69">
+        <f t="shared" si="17"/>
+        <v>0.23255148741418763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="19">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4122,8 +4250,23 @@
       <c r="I31" s="12">
         <v>-5.03</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="19">
+      <c r="J31" s="70">
+        <v>1.79</v>
+      </c>
+      <c r="K31" s="70">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="L31" s="70">
+        <v>3.49</v>
+      </c>
+      <c r="M31" s="70">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="N31" s="70">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="19">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4220,27 +4363,27 @@
         <v>-5.5295227779249105E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:I35" si="6">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:I35" si="18">(D34-C34)/C34</f>
         <v>-0.3769470805153512</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.1938501646254167</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.5035386072758212E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.4444488778425768E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.12548655917059306</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.3770300982977244E-2</v>
       </c>
     </row>
@@ -5524,35 +5667,35 @@
         <v>104</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:H80" si="7">B79/B3</f>
+        <f t="shared" ref="B80:H80" si="19">B79/B3</f>
         <v>0.19590629835608464</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.20722587264942086</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.13742646535377526</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.1400777481499236</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.17968320212463246</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.25290999017581894</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.28733597167256819</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" ref="I80" si="8">I79/I3</f>
+        <f t="shared" ref="I80" si="20">I79/I3</f>
         <v>0.29708255451713395</v>
       </c>
       <c r="J80" s="15"/>
@@ -5650,10 +5793,10 @@
       <c r="I83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P83" s="65" t="s">
+      <c r="P83" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="Q83" s="66"/>
+      <c r="Q83" s="74"/>
     </row>
     <row r="84" spans="1:17" ht="19">
       <c r="A84" s="5" t="s">
@@ -5683,10 +5826,10 @@
       <c r="I84" s="1">
         <v>3161000</v>
       </c>
-      <c r="P84" s="67" t="s">
+      <c r="P84" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="Q84" s="68"/>
+      <c r="Q84" s="76"/>
     </row>
     <row r="85" spans="1:17" ht="19" customHeight="1">
       <c r="A85" s="5" t="s">
@@ -5837,35 +5980,35 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:H89" si="9">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:H89" si="21">(-1*B88)/B3</f>
         <v>7.1701061727260191E-3</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.6604510744095188E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.3817071039807402E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>2.564640321179255E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>8.4511049985772548E-3</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.994139367864765E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>9.238002156144209E-3</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" ref="I89" si="10">(-1*I88)/I3</f>
+        <f t="shared" ref="I89" si="22">(-1*I88)/I3</f>
         <v>5.6417445482866042E-3</v>
       </c>
       <c r="P89" s="30" t="s">
@@ -6012,10 +6155,10 @@
       <c r="I93" s="1">
         <v>-3098000</v>
       </c>
-      <c r="P93" s="67" t="s">
+      <c r="P93" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="Q93" s="68"/>
+      <c r="Q93" s="76"/>
     </row>
     <row r="94" spans="1:17" ht="19" customHeight="1">
       <c r="A94" s="6" t="s">
@@ -6085,7 +6228,7 @@
       </c>
       <c r="Q95" s="37" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.0418000000000001</v>
+        <v>1.0888</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20">
@@ -6156,7 +6299,7 @@
       </c>
       <c r="Q97" s="35">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>8.5799490000000006E-2</v>
+        <v>8.7822840000000013E-2</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19">
@@ -6187,10 +6330,10 @@
       <c r="I98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P98" s="67" t="s">
+      <c r="P98" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="Q98" s="68"/>
+      <c r="Q98" s="76"/>
     </row>
     <row r="99" spans="1:21" ht="19" customHeight="1">
       <c r="A99" s="5" t="s">
@@ -6261,7 +6404,7 @@
       </c>
       <c r="Q100" s="33">
         <f>Q99/Q103</f>
-        <v>5.7379498261723984E-2</v>
+        <v>4.2496770288214095E-2</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20">
@@ -6297,7 +6440,7 @@
       </c>
       <c r="Q101" s="38" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>19985750000</v>
+        <v>27410984736</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20">
@@ -6333,7 +6476,7 @@
       </c>
       <c r="Q102" s="33">
         <f>Q101/Q103</f>
-        <v>0.94262050173827605</v>
+        <v>0.95750322971178592</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20">
@@ -6369,7 +6512,7 @@
       </c>
       <c r="Q103" s="39">
         <f>Q99+Q101</f>
-        <v>21202329000</v>
+        <v>28627563736</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="20" thickBot="1">
@@ -6400,10 +6543,10 @@
       <c r="I104" s="11">
         <v>456339000</v>
       </c>
-      <c r="P104" s="67" t="s">
+      <c r="P104" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="Q104" s="68"/>
+      <c r="Q104" s="76"/>
     </row>
     <row r="105" spans="1:21" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
@@ -6431,7 +6574,7 @@
         <v>0.64469550507491546</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105" si="11">(H106/G106)-1</f>
+        <f t="shared" ref="H105" si="23">(H106/G106)-1</f>
         <v>-0.97994343018770891</v>
       </c>
       <c r="I105" s="15">
@@ -6439,19 +6582,19 @@
         <v>17.510989010989011</v>
       </c>
       <c r="J105" s="58">
-        <v>112500000</v>
+        <v>150000000</v>
       </c>
       <c r="K105" s="58">
-        <v>171300000</v>
+        <v>195700000</v>
       </c>
       <c r="L105" s="58">
-        <v>288400000</v>
+        <v>280400000</v>
       </c>
       <c r="M105" s="58">
-        <v>451900000</v>
+        <v>432800000</v>
       </c>
       <c r="N105" s="58">
-        <v>629100000</v>
+        <v>613800000</v>
       </c>
       <c r="O105" s="15"/>
       <c r="P105" s="23" t="s">
@@ -6459,7 +6602,7 @@
       </c>
       <c r="Q105" s="24">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>8.0876358312688204E-2</v>
+        <v>8.409065294246143E-2</v>
       </c>
       <c r="R105" s="15"/>
       <c r="S105" s="15"/>
@@ -6496,23 +6639,23 @@
       </c>
       <c r="J106" s="40">
         <f>I106*(1+$Q$106)</f>
-        <v>-24642832.737025272</v>
+        <v>-24701775.373937402</v>
       </c>
       <c r="K106" s="40">
-        <f t="shared" ref="K106:N106" si="12">J106*(1+$Q$106)</f>
-        <v>-30042010.750222839</v>
+        <f t="shared" ref="K106:N106" si="24">J106*(1+$Q$106)</f>
+        <v>-30185896.241439611</v>
       </c>
       <c r="L106" s="40">
-        <f t="shared" si="12"/>
-        <v>-36624134.065581113</v>
+        <f t="shared" si="24"/>
+        <v>-36887564.480905443</v>
       </c>
       <c r="M106" s="40">
-        <f t="shared" si="12"/>
-        <v>-44648382.799866669</v>
+        <f t="shared" si="24"/>
+        <v>-45077091.713612251</v>
       </c>
       <c r="N106" s="40">
-        <f t="shared" si="12"/>
-        <v>-54430722.732551225</v>
+        <f t="shared" si="24"/>
+        <v>-55084802.316217713</v>
       </c>
       <c r="O106" s="41" t="s">
         <v>146</v>
@@ -6522,7 +6665,7 @@
       </c>
       <c r="Q106" s="43">
         <f>(SUM(J4:N4)/5)</f>
-        <v>0.21909729578634968</v>
+        <v>0.22201322716619179</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="19">
@@ -6537,7 +6680,7 @@
       <c r="M107" s="41"/>
       <c r="N107" s="59">
         <f>N105*(1+Q107)/(Q108-Q107)</f>
-        <v>11540256370.88763</v>
+        <v>10647115384.096701</v>
       </c>
       <c r="O107" s="45" t="s">
         <v>148</v>
@@ -6551,24 +6694,24 @@
     </row>
     <row r="108" spans="1:21" ht="19">
       <c r="J108" s="44">
-        <f t="shared" ref="J108:L108" si="13">J107+J106</f>
-        <v>-24642832.737025272</v>
+        <f t="shared" ref="J108:L108" si="25">J107+J106</f>
+        <v>-24701775.373937402</v>
       </c>
       <c r="K108" s="44">
-        <f t="shared" si="13"/>
-        <v>-30042010.750222839</v>
+        <f t="shared" si="25"/>
+        <v>-30185896.241439611</v>
       </c>
       <c r="L108" s="44">
-        <f t="shared" si="13"/>
-        <v>-36624134.065581113</v>
+        <f t="shared" si="25"/>
+        <v>-36887564.480905443</v>
       </c>
       <c r="M108" s="44">
         <f>M107+M106</f>
-        <v>-44648382.799866669</v>
+        <v>-45077091.713612251</v>
       </c>
       <c r="N108" s="59">
         <f>N107+N105</f>
-        <v>12169356370.88763</v>
+        <v>11260915384.096701</v>
       </c>
       <c r="O108" s="45" t="s">
         <v>144</v>
@@ -6578,14 +6721,14 @@
       </c>
       <c r="Q108" s="49">
         <f>Q105</f>
-        <v>8.0876358312688204E-2</v>
+        <v>8.409065294246143E-2</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="19">
-      <c r="J109" s="63" t="s">
+      <c r="J109" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="K109" s="64"/>
+      <c r="K109" s="72"/>
     </row>
     <row r="110" spans="1:21" ht="20">
       <c r="J110" s="50" t="s">
@@ -6593,7 +6736,7 @@
       </c>
       <c r="K110" s="38">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>8138510487.4946499</v>
+        <v>7410423971.1183834</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="20">
@@ -6620,7 +6763,7 @@
       </c>
       <c r="K113" s="38">
         <f>K110+K111-K112</f>
-        <v>8758561487.4946499</v>
+        <v>8030474971.1183834</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20">
@@ -6629,7 +6772,7 @@
       </c>
       <c r="K114" s="51" cm="1">
         <f t="array" ref="K114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>70531310</v>
+        <v>70581380</v>
       </c>
     </row>
     <row r="115" spans="10:11" ht="20">
@@ -6638,7 +6781,7 @@
       </c>
       <c r="K115" s="57">
         <f>K113/K114</f>
-        <v>124.17976480933999</v>
+        <v>113.77611164755326</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20">
@@ -6647,7 +6790,7 @@
       </c>
       <c r="K116" s="53" cm="1">
         <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>283.36</v>
+        <v>388.36</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20">
@@ -6656,7 +6799,7 @@
       </c>
       <c r="K117" s="55">
         <f>K115/K116-1</f>
-        <v>-0.56175972328719659</v>
+        <v>-0.70703442257814075</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20">

--- a/Technology/Software/MongoDB.xlsx
+++ b/Technology/Software/MongoDB.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B5F43-156D-684E-A868-98FE72680F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FACE566-5306-E442-A9AA-6940C60CA203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -549,9 +543,6 @@
     <t>Buy/Sell</t>
   </si>
   <si>
-    <t>Shares (No dilution)</t>
-  </si>
-  <si>
     <t>Forward P/S</t>
   </si>
   <si>
@@ -559,19 +550,44 @@
   </si>
   <si>
     <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Shares (5% dilution)</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -917,7 +933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -996,7 +1012,6 @@
     <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1049,6 +1064,15 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1343,11 +1367,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1387,7 +1411,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$I$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$I$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2135,15 +2159,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>45358</xdr:colOff>
+      <xdr:colOff>29483</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>7256</xdr:rowOff>
+      <xdr:rowOff>23131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1614714</xdr:colOff>
+      <xdr:colOff>1598839</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2169,6 +2193,68 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>3.739E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2320,9 +2406,9 @@
     <v>Powered by Refinitiv</v>
     <v>398.89</v>
     <v>135.15</v>
-    <v>1.0888</v>
-    <v>15.4</v>
-    <v>4.1291000000000001E-2</v>
+    <v>1.0806</v>
+    <v>1.63</v>
+    <v>4.1970000000000002E-3</v>
     <v>USD</v>
     <v>MongoDB, Inc. is a developer data platform company. Its developer data platform is an integrated set of databases and related services that allow development teams to address the growing variety of modern application requirements. Its core offerings are MongoDB Atlas and MongoDB Enterprise Advanced. MongoDB Atlas is its managed multi-cloud database-as-a-service offering that includes an integrated set of database and related services. MongoDB Atlas provides customers with a managed offering that includes automated provisioning and healing, comprehensive system monitoring, managed backup and restore, default security and other features. MongoDB Enterprise Advanced is its self-managed commercial offering for enterprise customers that can run in the cloud, on-premises or in a hybrid environment. It provides professional services to its customers, including consulting and training. It has over 40,800 customers spanning a range of industries in more than 100 countries around the world.</v>
     <v>4619</v>
@@ -2330,24 +2416,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1633 Broadway Fl 38, NEW YORK, NY, 10019-6763 US</v>
-    <v>396.8399</v>
+    <v>396</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.999680717185</v>
+    <v>45100.999628310157</v>
     <v>4</v>
-    <v>365.11</v>
-    <v>27410984736</v>
+    <v>380.2</v>
+    <v>27526030000</v>
     <v>MONGODB, INC.</v>
     <v>MONGODB, INC.</v>
-    <v>366.66</v>
-    <v>372.96</v>
+    <v>386.63</v>
     <v>388.36</v>
+    <v>389.99</v>
     <v>70581380</v>
     <v>MDB</v>
     <v>MONGODB, INC. (XNAS:MDB)</v>
-    <v>5562</v>
-    <v>2240394</v>
+    <v>357</v>
+    <v>2300255</v>
     <v>2007</v>
   </rv>
   <rv s="4">
@@ -2949,10 +3035,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J127" sqref="J127"/>
+      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3012,34 +3098,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -3093,21 +3179,21 @@
         <v>3496000000</v>
       </c>
       <c r="O3" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="R3" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3171,7 +3257,7 @@
         <v>0.26532531940550536</v>
       </c>
       <c r="R4" s="17">
-        <f>(I105+H105+G105)/3</f>
+        <f>(I106+H106+G106)/3</f>
         <v>5.7252470286254047</v>
       </c>
       <c r="AA4" s="16"/>
@@ -3244,16 +3330,16 @@
         <v>934700000</v>
       </c>
       <c r="O6" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="R6" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19">
@@ -3298,7 +3384,7 @@
         <v>-0.35120000000000001</v>
       </c>
       <c r="R7" s="18">
-        <f>I106/I3</f>
+        <f>I107/I3</f>
         <v>-1.5742990654205608E-2</v>
       </c>
     </row>
@@ -3334,7 +3420,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3369,16 +3455,16 @@
         <v>0.32842056074766357</v>
       </c>
       <c r="O9" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="Q9" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="R9" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19">
@@ -3485,21 +3571,21 @@
         <v>859699000</v>
       </c>
       <c r="O12" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="R12" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="Q12" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3545,7 +3631,7 @@
         <f>I22/(I72+I56+I61)</f>
         <v>-0.17721860019518559</v>
       </c>
-      <c r="R13" s="62">
+      <c r="R13" s="61">
         <f>I67/I72</f>
         <v>2.5008316340053116</v>
       </c>
@@ -3555,28 +3641,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" customHeight="1">
@@ -3608,16 +3694,16 @@
         <v>1281391000</v>
       </c>
       <c r="O15" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q15" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="R15" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="Q15" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="R15" s="21" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19">
@@ -3653,17 +3739,17 @@
         <f>(I35+H35+G35+F35+E35)/5</f>
         <v>0.29651737992603422</v>
       </c>
-      <c r="P16" s="60">
+      <c r="P16" s="59">
         <f>Q101/I3</f>
-        <v>21.34811895327103</v>
-      </c>
-      <c r="Q16" s="60">
+        <v>21.437718068535826</v>
+      </c>
+      <c r="Q16" s="59">
         <f>Q101/I28</f>
-        <v>-79.360577467153831</v>
-      </c>
-      <c r="R16" s="61">
-        <f>Q101/I106</f>
-        <v>-1356.0396129415258</v>
+        <v>-79.693657751347715</v>
+      </c>
+      <c r="R16" s="60">
+        <f>Q101/I107</f>
+        <v>-1361.7309785297318</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19">
@@ -3724,16 +3810,16 @@
         <v>16110000</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P18" s="21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="19">
@@ -3764,41 +3850,41 @@
       <c r="I19" s="10">
         <v>50909000</v>
       </c>
-      <c r="J19" s="66">
+      <c r="J19" s="65">
         <v>135700000</v>
       </c>
-      <c r="K19" s="66">
+      <c r="K19" s="65">
         <v>182600000</v>
       </c>
-      <c r="L19" s="66">
+      <c r="L19" s="65">
         <v>273800000</v>
       </c>
-      <c r="M19" s="66">
+      <c r="M19" s="65">
         <v>435000000</v>
       </c>
-      <c r="N19" s="66">
+      <c r="N19" s="65">
         <v>612000000</v>
       </c>
       <c r="O19" s="29">
         <f>I40-I56-I61</f>
         <v>620051000</v>
       </c>
-      <c r="P19" s="63">
+      <c r="P19" s="62">
         <f>Q101/J3</f>
-        <v>17.822486824447335</v>
-      </c>
-      <c r="Q19" s="60">
+        <v>17.897288686605982</v>
+      </c>
+      <c r="Q19" s="59">
         <f>Q101/J28</f>
-        <v>217.20273166402535</v>
-      </c>
-      <c r="R19" s="61">
+        <v>218.11434231378763</v>
+      </c>
+      <c r="R19" s="60">
         <f>Q101/J105</f>
-        <v>182.73989824</v>
+        <v>-92.385473457911033</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3850,7 +3936,7 @@
         <v>0.40689655172413786</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="19">
+    <row r="21" spans="1:18" ht="20">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3875,29 +3961,35 @@
       <c r="H21" s="2">
         <v>-0.32640000000000002</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="64">
         <f>I19/I3</f>
         <v>3.9648753894080999E-2</v>
       </c>
-      <c r="J21" s="67">
+      <c r="J21" s="66">
         <f t="shared" ref="J21:N21" si="10">J19/J3</f>
         <v>8.8231469440832253E-2</v>
       </c>
-      <c r="K21" s="67">
+      <c r="K21" s="66">
         <f t="shared" si="10"/>
         <v>9.886302111532215E-2</v>
       </c>
-      <c r="L21" s="67">
+      <c r="L21" s="66">
         <f t="shared" si="10"/>
         <v>0.12040457343887423</v>
       </c>
-      <c r="M21" s="67">
+      <c r="M21" s="66">
         <f t="shared" si="10"/>
         <v>0.15681326604181686</v>
       </c>
-      <c r="N21" s="67">
+      <c r="N21" s="66">
         <f t="shared" si="10"/>
         <v>0.17505720823798626</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="R21" s="21" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="19">
@@ -3925,8 +4017,16 @@
       <c r="H22" s="10">
         <v>-289364000</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="63">
         <v>-346655000</v>
+      </c>
+      <c r="Q22" s="71">
+        <f>(-1*I98)/Q101</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="72">
+        <f>I107/Q101</f>
+        <v>-7.3435944086379325E-4</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19">
@@ -4103,25 +4203,25 @@
       <c r="I28" s="11">
         <v>-345398000</v>
       </c>
-      <c r="J28" s="68">
+      <c r="J28" s="67">
         <v>126200000</v>
       </c>
-      <c r="K28" s="68">
+      <c r="K28" s="67">
         <v>171100000</v>
       </c>
-      <c r="L28" s="68">
+      <c r="L28" s="67">
         <v>246000000</v>
       </c>
-      <c r="M28" s="68">
+      <c r="M28" s="67">
         <v>579600000</v>
       </c>
-      <c r="N28" s="68">
+      <c r="N28" s="67">
         <v>813000000</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="20" customHeight="1" thickTop="1">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4201,23 +4301,23 @@
       <c r="I30" s="2">
         <v>-0.35120000000000001</v>
       </c>
-      <c r="J30" s="69">
+      <c r="J30" s="68">
         <f>J28/J3</f>
         <v>8.2054616384915471E-2</v>
       </c>
-      <c r="K30" s="69">
+      <c r="K30" s="68">
         <f t="shared" ref="K30:N30" si="17">K28/K3</f>
         <v>9.2636708175419594E-2</v>
       </c>
-      <c r="L30" s="69">
+      <c r="L30" s="68">
         <f t="shared" si="17"/>
         <v>0.10817941952506596</v>
       </c>
-      <c r="M30" s="69">
+      <c r="M30" s="68">
         <f t="shared" si="17"/>
         <v>0.20894015861571738</v>
       </c>
-      <c r="N30" s="69">
+      <c r="N30" s="68">
         <f t="shared" si="17"/>
         <v>0.23255148741418763</v>
       </c>
@@ -4250,19 +4350,19 @@
       <c r="I31" s="12">
         <v>-5.03</v>
       </c>
-      <c r="J31" s="70">
+      <c r="J31" s="69">
         <v>1.79</v>
       </c>
-      <c r="K31" s="70">
+      <c r="K31" s="69">
         <v>2.4300000000000002</v>
       </c>
-      <c r="L31" s="70">
+      <c r="L31" s="69">
         <v>3.49</v>
       </c>
-      <c r="M31" s="70">
+      <c r="M31" s="69">
         <v>8.2200000000000006</v>
       </c>
-      <c r="N31" s="70">
+      <c r="N31" s="69">
         <v>11.53</v>
       </c>
     </row>
@@ -4355,7 +4455,7 @@
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -4392,28 +4492,28 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="21">
@@ -4421,25 +4521,25 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9"/>
     </row>
@@ -4566,28 +4666,28 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19">
@@ -4770,28 +4870,28 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19">
@@ -4886,28 +4986,28 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="20" thickBot="1">
@@ -4974,19 +5074,19 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1">
         <v>2343000</v>
@@ -5003,28 +5103,28 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="19">
@@ -5119,13 +5219,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1">
         <v>216858000</v>
@@ -5264,28 +5364,28 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="19">
@@ -5496,25 +5596,25 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="21">
@@ -5522,28 +5622,28 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="19">
@@ -5664,7 +5764,7 @@
     </row>
     <row r="80" spans="1:17" ht="19">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:H80" si="19">B79/B3</f>
@@ -5770,33 +5870,33 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P83" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q83" s="74"/>
+        <v>91</v>
+      </c>
+      <c r="P83" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q83" s="76"/>
     </row>
     <row r="84" spans="1:17" ht="19">
       <c r="A84" s="5" t="s">
@@ -5826,10 +5926,10 @@
       <c r="I84" s="1">
         <v>3161000</v>
       </c>
-      <c r="P84" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q84" s="76"/>
+      <c r="P84" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q84" s="78"/>
     </row>
     <row r="85" spans="1:17" ht="19" customHeight="1">
       <c r="A85" s="5" t="s">
@@ -5860,7 +5960,7 @@
         <v>32978000</v>
       </c>
       <c r="P85" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q85" s="31">
         <f>I17</f>
@@ -5896,7 +5996,7 @@
         <v>34882000</v>
       </c>
       <c r="P86" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q86" s="31">
         <f>I56</f>
@@ -5932,7 +6032,7 @@
         <v>-12970000</v>
       </c>
       <c r="P87" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q87" s="31">
         <f>I61</f>
@@ -5968,7 +6068,7 @@
         <v>-7244000</v>
       </c>
       <c r="P88" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q88" s="33">
         <f>Q85/(Q86+Q87)</f>
@@ -5977,7 +6077,7 @@
     </row>
     <row r="89" spans="1:17" ht="20" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:H89" si="21">(-1*B88)/B3</f>
@@ -6012,7 +6112,7 @@
         <v>5.6417445482866042E-3</v>
       </c>
       <c r="P89" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q89" s="31">
         <f>I27</f>
@@ -6024,13 +6124,13 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1">
         <v>-56000000</v>
@@ -6039,7 +6139,7 @@
         <v>-39000000</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1">
         <v>-4469000</v>
@@ -6084,7 +6184,7 @@
         <v>-1444796600</v>
       </c>
       <c r="P91" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q91" s="33">
         <f>Q89/Q90</f>
@@ -6120,7 +6220,7 @@
         <v>1425000000</v>
       </c>
       <c r="P92" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q92" s="35">
         <f>Q88*(1-Q91)</f>
@@ -6132,13 +6232,13 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1">
         <v>483000</v>
@@ -6147,7 +6247,7 @@
         <v>371000</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1">
         <v>-4343000</v>
@@ -6155,10 +6255,10 @@
       <c r="I93" s="1">
         <v>-3098000</v>
       </c>
-      <c r="P93" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q93" s="76"/>
+      <c r="P93" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q93" s="78"/>
     </row>
     <row r="94" spans="1:17" ht="19" customHeight="1">
       <c r="A94" s="6" t="s">
@@ -6189,10 +6289,11 @@
         <v>-33308000</v>
       </c>
       <c r="P94" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q94" s="36">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20">
@@ -6200,16 +6301,16 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1">
         <v>-480985000</v>
@@ -6224,11 +6325,11 @@
         <v>-4510000</v>
       </c>
       <c r="P95" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q95" s="37" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.0888</v>
+        <v>1.0806</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20">
@@ -6236,22 +6337,22 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>205494000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1">
         <v>889184000</v>
@@ -6260,7 +6361,7 @@
         <v>34710000</v>
       </c>
       <c r="P96" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q96" s="36">
         <v>8.4000000000000005E-2</v>
@@ -6271,35 +6372,35 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q97" s="35">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>8.7822840000000013E-2</v>
+        <v>8.7756766000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19">
@@ -6307,33 +6408,33 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P98" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q98" s="76"/>
+        <v>91</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="P98" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q98" s="78"/>
     </row>
     <row r="99" spans="1:21" ht="19" customHeight="1">
       <c r="A99" s="5" t="s">
@@ -6364,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q99" s="31">
         <f>Q86+Q87</f>
@@ -6400,11 +6501,11 @@
         <v>30200000</v>
       </c>
       <c r="P100" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q100" s="33">
         <f>Q99/Q103</f>
-        <v>4.2496770288214095E-2</v>
+        <v>4.2326672571720958E-2</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20">
@@ -6436,11 +6537,11 @@
         <v>-2003000</v>
       </c>
       <c r="P101" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q101" s="38" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>27410984736</v>
+        <v>27526030000</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20">
@@ -6472,11 +6573,11 @@
         <v>-18081000</v>
       </c>
       <c r="P102" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q102" s="33">
         <f>Q101/Q103</f>
-        <v>0.95750322971178592</v>
+        <v>0.95767332742827904</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20">
@@ -6508,11 +6609,11 @@
         <v>474000000</v>
       </c>
       <c r="P103" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q103" s="39">
         <f>Q99+Q101</f>
-        <v>28627563736</v>
+        <v>28742609000</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="20" thickBot="1">
@@ -6543,66 +6644,76 @@
       <c r="I104" s="11">
         <v>456339000</v>
       </c>
-      <c r="P104" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q104" s="76"/>
+      <c r="P104" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q104" s="78"/>
     </row>
     <row r="105" spans="1:21" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.16167323789242871</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>0.18246522974774271</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>3.8731495661051607E-2</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-0.32215328541884225</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>0.64469550507491546</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105" si="23">(H106/G106)-1</f>
-        <v>-0.97994343018770891</v>
-      </c>
-      <c r="I105" s="15">
-        <f>(I106/H106)-1</f>
-        <v>17.510989010989011</v>
-      </c>
-      <c r="J105" s="58">
-        <v>150000000</v>
-      </c>
-      <c r="K105" s="58">
-        <v>195700000</v>
-      </c>
-      <c r="L105" s="58">
-        <v>280400000</v>
-      </c>
-      <c r="M105" s="58">
-        <v>432800000</v>
-      </c>
-      <c r="N105" s="58">
-        <v>613800000</v>
-      </c>
-      <c r="O105" s="15"/>
+        <v>159</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:H105" si="23">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>-44866400</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="23"/>
+        <v>-42799600</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="23"/>
+        <v>-49302600</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="23"/>
+        <v>-69450000</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="23"/>
+        <v>-75490800</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="23"/>
+        <v>-153145200</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="23"/>
+        <v>-194081200</v>
+      </c>
+      <c r="I105" s="1">
+        <f>(I22*(1-0.2))+I77+I88+I81</f>
+        <v>-243817000</v>
+      </c>
+      <c r="J105" s="40">
+        <f>I105*(1+$Q$106)</f>
+        <v>-297947599.00797939</v>
+      </c>
+      <c r="K105" s="40">
+        <f t="shared" ref="K105:N105" si="24">J105*(1+$Q$106)</f>
+        <v>-364095906.99015939</v>
+      </c>
+      <c r="L105" s="40">
+        <f t="shared" si="24"/>
+        <v>-444930014.29904634</v>
+      </c>
+      <c r="M105" s="40">
+        <f t="shared" si="24"/>
+        <v>-543710362.6366775</v>
+      </c>
+      <c r="N105" s="40">
+        <f t="shared" si="24"/>
+        <v>-664421254.88934672</v>
+      </c>
+      <c r="O105" s="41" t="s">
+        <v>162</v>
+      </c>
       <c r="P105" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q105" s="24">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>8.409065294246143E-2</v>
+        <v>8.4042314099564877E-2</v>
       </c>
       <c r="R105" s="15"/>
       <c r="S105" s="15"/>
@@ -6610,58 +6721,58 @@
       <c r="U105" s="15"/>
     </row>
     <row r="106" spans="1:21" ht="19">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-47429000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-39761000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-47016000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-48837000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-33104000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-54446000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-1092000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>-20214000</v>
-      </c>
-      <c r="J106" s="40">
-        <f>I106*(1+$Q$106)</f>
-        <v>-24701775.373937402</v>
-      </c>
-      <c r="K106" s="40">
-        <f t="shared" ref="K106:N106" si="24">J106*(1+$Q$106)</f>
-        <v>-30185896.241439611</v>
-      </c>
-      <c r="L106" s="40">
-        <f t="shared" si="24"/>
-        <v>-36887564.480905443</v>
-      </c>
-      <c r="M106" s="40">
-        <f t="shared" si="24"/>
-        <v>-45077091.713612251</v>
-      </c>
-      <c r="N106" s="40">
-        <f t="shared" si="24"/>
-        <v>-55084802.316217713</v>
+      <c r="A106" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:I106" si="25">(C107/B107)-1</f>
+        <v>-0.16167323789242871</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="25"/>
+        <v>0.18246522974774271</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="25"/>
+        <v>3.8731495661051607E-2</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="25"/>
+        <v>-0.32215328541884225</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="25"/>
+        <v>0.64469550507491546</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="25"/>
+        <v>-0.97994343018770891</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="25"/>
+        <v>17.510989010989011</v>
+      </c>
+      <c r="J106" s="57">
+        <v>147800000</v>
+      </c>
+      <c r="K106" s="57">
+        <v>210800000</v>
+      </c>
+      <c r="L106" s="57">
+        <v>327100000</v>
+      </c>
+      <c r="M106" s="57">
+        <v>416000000</v>
+      </c>
+      <c r="N106" s="57">
+        <v>621500000</v>
       </c>
       <c r="O106" s="41" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="P106" s="42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q106" s="43">
         <f>(SUM(J4:N4)/5)</f>
@@ -6669,79 +6780,101 @@
       </c>
     </row>
     <row r="107" spans="1:21" ht="19">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
+      <c r="A107" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-47429000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-39761000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-47016000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-48837000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-33104000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-54446000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-1092000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-20214000</v>
+      </c>
       <c r="J107" s="41"/>
       <c r="K107" s="41"/>
       <c r="L107" s="41"/>
       <c r="M107" s="41"/>
-      <c r="N107" s="59">
-        <f>N105*(1+Q107)/(Q108-Q107)</f>
-        <v>10647115384.096701</v>
-      </c>
-      <c r="O107" s="45" t="s">
+      <c r="N107" s="58">
+        <f>N106*(1+Q107)/(Q108-Q107)</f>
+        <v>10789507655.911724</v>
+      </c>
+      <c r="O107" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="P107" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q107" s="46">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" ht="19">
+      <c r="J108" s="58">
+        <f t="shared" ref="J108:M108" si="26">J107+J106</f>
+        <v>147800000</v>
+      </c>
+      <c r="K108" s="58">
+        <f t="shared" si="26"/>
+        <v>210800000</v>
+      </c>
+      <c r="L108" s="58">
+        <f t="shared" si="26"/>
+        <v>327100000</v>
+      </c>
+      <c r="M108" s="58">
+        <f t="shared" si="26"/>
+        <v>416000000</v>
+      </c>
+      <c r="N108" s="58">
+        <f>N107+N106</f>
+        <v>11411007655.911724</v>
+      </c>
+      <c r="O108" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="P108" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q108" s="48">
+        <f>Q105</f>
+        <v>8.4042314099564877E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="19">
+      <c r="J109" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="P107" s="46" t="s">
+      <c r="K109" s="74"/>
+    </row>
+    <row r="110" spans="1:21" ht="20">
+      <c r="J110" s="49" t="s">
         <v>149</v>
-      </c>
-      <c r="Q107" s="47">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" ht="19">
-      <c r="J108" s="44">
-        <f t="shared" ref="J108:L108" si="25">J107+J106</f>
-        <v>-24701775.373937402</v>
-      </c>
-      <c r="K108" s="44">
-        <f t="shared" si="25"/>
-        <v>-30185896.241439611</v>
-      </c>
-      <c r="L108" s="44">
-        <f t="shared" si="25"/>
-        <v>-36887564.480905443</v>
-      </c>
-      <c r="M108" s="44">
-        <f>M107+M106</f>
-        <v>-45077091.713612251</v>
-      </c>
-      <c r="N108" s="59">
-        <f>N107+N105</f>
-        <v>11260915384.096701</v>
-      </c>
-      <c r="O108" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="P108" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q108" s="49">
-        <f>Q105</f>
-        <v>8.409065294246143E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="19">
-      <c r="J109" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="K109" s="72"/>
-    </row>
-    <row r="110" spans="1:21" ht="20">
-      <c r="J110" s="50" t="s">
-        <v>152</v>
       </c>
       <c r="K110" s="38">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>7410423971.1183834</v>
+        <v>8496147952.1971102</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="20">
-      <c r="J111" s="50" t="s">
-        <v>153</v>
+      <c r="J111" s="49" t="s">
+        <v>150</v>
       </c>
       <c r="K111" s="38">
         <f>I40</f>
@@ -6749,8 +6882,8 @@
       </c>
     </row>
     <row r="112" spans="1:21" ht="20">
-      <c r="J112" s="50" t="s">
-        <v>140</v>
+      <c r="J112" s="49" t="s">
+        <v>138</v>
       </c>
       <c r="K112" s="38">
         <f>Q99</f>
@@ -6758,55 +6891,55 @@
       </c>
     </row>
     <row r="113" spans="10:11" ht="20">
-      <c r="J113" s="50" t="s">
-        <v>154</v>
+      <c r="J113" s="49" t="s">
+        <v>151</v>
       </c>
       <c r="K113" s="38">
         <f>K110+K111-K112</f>
-        <v>8030474971.1183834</v>
+        <v>9116198952.1971092</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20">
-      <c r="J114" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="K114" s="51" cm="1">
-        <f t="array" ref="K114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>70581380</v>
+      <c r="J114" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="K114" s="50">
+        <f>I34*(1+(0.05*5))</f>
+        <v>85785333.75</v>
       </c>
     </row>
     <row r="115" spans="10:11" ht="20">
-      <c r="J115" s="52" t="s">
+      <c r="J115" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="K115" s="56">
+        <f>K113/K114</f>
+        <v>106.26756991776708</v>
+      </c>
+    </row>
+    <row r="116" spans="10:11" ht="20">
+      <c r="J116" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="K116" s="52" cm="1">
+        <f t="array" ref="K116">_FV(A1,"Price")</f>
+        <v>389.99</v>
+      </c>
+    </row>
+    <row r="117" spans="10:11" ht="20">
+      <c r="J117" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="K117" s="54">
+        <f>K115/K116-1</f>
+        <v>-0.72751206462276707</v>
+      </c>
+    </row>
+    <row r="118" spans="10:11" ht="20">
+      <c r="J118" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="K115" s="57">
-        <f>K113/K114</f>
-        <v>113.77611164755326</v>
-      </c>
-    </row>
-    <row r="116" spans="10:11" ht="20">
-      <c r="J116" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="K116" s="53" cm="1">
-        <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>388.36</v>
-      </c>
-    </row>
-    <row r="117" spans="10:11" ht="20">
-      <c r="J117" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="K117" s="55">
-        <f>K115/K116-1</f>
-        <v>-0.70703442257814075</v>
-      </c>
-    </row>
-    <row r="118" spans="10:11" ht="20">
-      <c r="J118" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="K118" s="56" t="str">
+      <c r="K118" s="55" t="str">
         <f>IF(K115&gt;K116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -6838,8 +6971,9 @@
     <hyperlink ref="H74" r:id="rId15" tooltip="https://www.sec.gov/Archives/edgar/data/1441816/000144181622000059/0001441816-22-000059-index.htm" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="I36" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1441816/000144181622000059/0001441816-22-000059-index.htm" xr:uid="{5A771ABC-18CB-284F-B64C-A5C8A01F946C}"/>
     <hyperlink ref="J1" r:id="rId17" display="https://finbox.com/NASDAQGM:MDB/explorer/revenue_proj" xr:uid="{1ADFDDA7-D30E-E746-A67F-D3A291AA635E}"/>
+    <hyperlink ref="O106" r:id="rId18" xr:uid="{8F97825E-3939-5041-84EE-CA3B2EDB413D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
--- a/Technology/Software/MongoDB.xlsx
+++ b/Technology/Software/MongoDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FACE566-5306-E442-A9AA-6940C60CA203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA60A92-1065-7C4D-B115-577C9BFB3940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -861,62 +861,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -933,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -975,77 +922,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="10" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="17" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1058,9 +951,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1073,22 +966,57 @@
     <xf numFmtId="170" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1141,7 +1069,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>MDB</a:t>
+              <a:t>MongoDB</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2161,13 +2089,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>29483</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>23131</xdr:rowOff>
+      <xdr:rowOff>23132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1598839</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2239,7 +2167,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.7679999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2404,11 +2332,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>398.89</v>
+    <v>414.48</v>
     <v>135.15</v>
-    <v>1.0806</v>
-    <v>1.63</v>
-    <v>4.1970000000000002E-3</v>
+    <v>1.0947</v>
+    <v>4.97</v>
+    <v>1.2487E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>MongoDB, Inc. is a developer data platform company. Its developer data platform is an integrated set of databases and related services that allow development teams to address the growing variety of modern application requirements. Its core offerings are MongoDB Atlas and MongoDB Enterprise Advanced. MongoDB Atlas is its managed multi-cloud database-as-a-service offering that includes an integrated set of database and related services. MongoDB Atlas provides customers with a managed offering that includes automated provisioning and healing, comprehensive system monitoring, managed backup and restore, default security and other features. MongoDB Enterprise Advanced is its self-managed commercial offering for enterprise customers that can run in the cloud, on-premises or in a hybrid environment. It provides professional services to its customers, including consulting and training. It has over 40,800 customers spanning a range of industries in more than 100 countries around the world.</v>
     <v>4619</v>
@@ -2416,24 +2346,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1633 Broadway Fl 38, NEW YORK, NY, 10019-6763 US</v>
-    <v>396</v>
+    <v>407.03</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45100.999628310157</v>
+    <v>45106.999985185153</v>
     <v>4</v>
-    <v>380.2</v>
-    <v>27526030000</v>
+    <v>395.55</v>
+    <v>28443590326</v>
     <v>MONGODB, INC.</v>
     <v>MONGODB, INC.</v>
-    <v>386.63</v>
-    <v>388.36</v>
-    <v>389.99</v>
+    <v>400</v>
+    <v>398.02</v>
+    <v>402.99</v>
+    <v>402.99</v>
     <v>70581380</v>
     <v>MDB</v>
     <v>MONGODB, INC. (XNAS:MDB)</v>
-    <v>357</v>
-    <v>2300255</v>
+    <v>1809917</v>
+    <v>2339400</v>
     <v>2007</v>
   </rv>
   <rv s="4">
@@ -2477,6 +2408,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2497,6 +2430,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2513,7 +2447,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2524,13 +2458,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2601,13 +2538,19 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
+      <v>1</v>
+      <v>1</v>
+      <v>6</v>
     </spb>
     <spb s="5">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -2660,6 +2603,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2667,6 +2613,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -3035,10 +2984,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
+      <selection pane="bottomRight" activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3077,19 +3026,19 @@
       <c r="I1" s="8">
         <v>2023</v>
       </c>
-      <c r="J1" s="25">
+      <c r="J1" s="23">
         <v>2024</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1" s="23">
         <v>2025</v>
       </c>
-      <c r="L1" s="25">
+      <c r="L1" s="23">
         <v>2026</v>
       </c>
-      <c r="M1" s="25">
+      <c r="M1" s="23">
         <v>2027</v>
       </c>
-      <c r="N1" s="25">
+      <c r="N1" s="23">
         <v>2028</v>
       </c>
     </row>
@@ -3163,19 +3112,19 @@
       <c r="I3" s="1">
         <v>1284000000</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="24">
         <v>1538000000</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="24">
         <v>1847000000</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="24">
         <v>2274000000</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="24">
         <v>2774000000</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="24">
         <v>3496000000</v>
       </c>
       <c r="O3" s="20" t="s">
@@ -3416,7 +3365,7 @@
       <c r="I8" s="1">
         <v>421692000</v>
       </c>
-      <c r="J8" s="28"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1">
       <c r="A9" s="14" t="s">
@@ -3631,7 +3580,7 @@
         <f>I22/(I72+I56+I61)</f>
         <v>-0.17721860019518559</v>
       </c>
-      <c r="R13" s="61">
+      <c r="R13" s="35">
         <f>I67/I72</f>
         <v>2.5008316340053116</v>
       </c>
@@ -3735,21 +3684,21 @@
         <f>I15+I5</f>
         <v>1630691000</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="25">
         <f>(I35+H35+G35+F35+E35)/5</f>
         <v>0.29651737992603422</v>
       </c>
-      <c r="P16" s="59">
+      <c r="P16" s="33">
         <f>Q101/I3</f>
-        <v>21.437718068535826</v>
-      </c>
-      <c r="Q16" s="59">
+        <v>22.152328914330219</v>
+      </c>
+      <c r="Q16" s="33">
         <f>Q101/I28</f>
-        <v>-79.693657751347715</v>
-      </c>
-      <c r="R16" s="60">
+        <v>-82.350188263973735</v>
+      </c>
+      <c r="R16" s="34">
         <f>Q101/I107</f>
-        <v>-1361.7309785297318</v>
+        <v>-1407.1232970218659</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19">
@@ -3850,36 +3799,36 @@
       <c r="I19" s="10">
         <v>50909000</v>
       </c>
-      <c r="J19" s="65">
+      <c r="J19" s="39">
         <v>135700000</v>
       </c>
-      <c r="K19" s="65">
+      <c r="K19" s="39">
         <v>182600000</v>
       </c>
-      <c r="L19" s="65">
+      <c r="L19" s="39">
         <v>273800000</v>
       </c>
-      <c r="M19" s="65">
+      <c r="M19" s="39">
         <v>435000000</v>
       </c>
-      <c r="N19" s="65">
+      <c r="N19" s="39">
         <v>612000000</v>
       </c>
-      <c r="O19" s="29">
+      <c r="O19" s="27">
         <f>I40-I56-I61</f>
         <v>620051000</v>
       </c>
-      <c r="P19" s="62">
+      <c r="P19" s="36">
         <f>Q101/J3</f>
-        <v>17.897288686605982</v>
-      </c>
-      <c r="Q19" s="59">
+        <v>18.49388187646294</v>
+      </c>
+      <c r="Q19" s="33">
         <f>Q101/J28</f>
-        <v>218.11434231378763</v>
-      </c>
-      <c r="R19" s="60">
+        <v>225.38502635499208</v>
+      </c>
+      <c r="R19" s="34">
         <f>Q101/J105</f>
-        <v>-92.385473457911033</v>
+        <v>-95.465076478895355</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1">
@@ -3961,27 +3910,27 @@
       <c r="H21" s="2">
         <v>-0.32640000000000002</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="38">
         <f>I19/I3</f>
         <v>3.9648753894080999E-2</v>
       </c>
-      <c r="J21" s="66">
+      <c r="J21" s="40">
         <f t="shared" ref="J21:N21" si="10">J19/J3</f>
         <v>8.8231469440832253E-2</v>
       </c>
-      <c r="K21" s="66">
+      <c r="K21" s="40">
         <f t="shared" si="10"/>
         <v>9.886302111532215E-2</v>
       </c>
-      <c r="L21" s="66">
+      <c r="L21" s="40">
         <f t="shared" si="10"/>
         <v>0.12040457343887423</v>
       </c>
-      <c r="M21" s="66">
+      <c r="M21" s="40">
         <f t="shared" si="10"/>
         <v>0.15681326604181686</v>
       </c>
-      <c r="N21" s="66">
+      <c r="N21" s="40">
         <f t="shared" si="10"/>
         <v>0.17505720823798626</v>
       </c>
@@ -4017,16 +3966,16 @@
       <c r="H22" s="10">
         <v>-289364000</v>
       </c>
-      <c r="I22" s="63">
+      <c r="I22" s="37">
         <v>-346655000</v>
       </c>
-      <c r="Q22" s="71">
+      <c r="Q22" s="45">
         <f>(-1*I98)/Q101</f>
         <v>0</v>
       </c>
-      <c r="R22" s="72">
+      <c r="R22" s="46">
         <f>I107/Q101</f>
-        <v>-7.3435944086379325E-4</v>
+        <v>-7.106697772089125E-4</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19">
@@ -4203,19 +4152,19 @@
       <c r="I28" s="11">
         <v>-345398000</v>
       </c>
-      <c r="J28" s="67">
+      <c r="J28" s="41">
         <v>126200000</v>
       </c>
-      <c r="K28" s="67">
+      <c r="K28" s="41">
         <v>171100000</v>
       </c>
-      <c r="L28" s="67">
+      <c r="L28" s="41">
         <v>246000000</v>
       </c>
-      <c r="M28" s="67">
+      <c r="M28" s="41">
         <v>579600000</v>
       </c>
-      <c r="N28" s="67">
+      <c r="N28" s="41">
         <v>813000000</v>
       </c>
     </row>
@@ -4301,23 +4250,23 @@
       <c r="I30" s="2">
         <v>-0.35120000000000001</v>
       </c>
-      <c r="J30" s="68">
+      <c r="J30" s="42">
         <f>J28/J3</f>
         <v>8.2054616384915471E-2</v>
       </c>
-      <c r="K30" s="68">
+      <c r="K30" s="42">
         <f t="shared" ref="K30:N30" si="17">K28/K3</f>
         <v>9.2636708175419594E-2</v>
       </c>
-      <c r="L30" s="68">
+      <c r="L30" s="42">
         <f t="shared" si="17"/>
         <v>0.10817941952506596</v>
       </c>
-      <c r="M30" s="68">
+      <c r="M30" s="42">
         <f t="shared" si="17"/>
         <v>0.20894015861571738</v>
       </c>
-      <c r="N30" s="68">
+      <c r="N30" s="42">
         <f t="shared" si="17"/>
         <v>0.23255148741418763</v>
       </c>
@@ -4350,19 +4299,19 @@
       <c r="I31" s="12">
         <v>-5.03</v>
       </c>
-      <c r="J31" s="69">
+      <c r="J31" s="43">
         <v>1.79</v>
       </c>
-      <c r="K31" s="69">
+      <c r="K31" s="43">
         <v>2.4300000000000002</v>
       </c>
-      <c r="L31" s="69">
+      <c r="L31" s="43">
         <v>3.49</v>
       </c>
-      <c r="M31" s="69">
+      <c r="M31" s="43">
         <v>8.2200000000000006</v>
       </c>
-      <c r="N31" s="69">
+      <c r="N31" s="43">
         <v>11.53</v>
       </c>
     </row>
@@ -5893,10 +5842,10 @@
       <c r="I83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P83" s="75" t="s">
+      <c r="P83" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="Q83" s="76"/>
+      <c r="Q83" s="70"/>
     </row>
     <row r="84" spans="1:17" ht="19">
       <c r="A84" s="5" t="s">
@@ -5926,10 +5875,10 @@
       <c r="I84" s="1">
         <v>3161000</v>
       </c>
-      <c r="P84" s="77" t="s">
+      <c r="P84" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="Q84" s="78"/>
+      <c r="Q84" s="71"/>
     </row>
     <row r="85" spans="1:17" ht="19" customHeight="1">
       <c r="A85" s="5" t="s">
@@ -5959,10 +5908,10 @@
       <c r="I85" s="1">
         <v>32978000</v>
       </c>
-      <c r="P85" s="30" t="s">
+      <c r="P85" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="Q85" s="31">
+      <c r="Q85" s="48">
         <f>I17</f>
         <v>0</v>
       </c>
@@ -5995,10 +5944,10 @@
       <c r="I86" s="1">
         <v>34882000</v>
       </c>
-      <c r="P86" s="30" t="s">
+      <c r="P86" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="Q86" s="31">
+      <c r="Q86" s="48">
         <f>I56</f>
         <v>8686000</v>
       </c>
@@ -6031,10 +5980,10 @@
       <c r="I87" s="10">
         <v>-12970000</v>
       </c>
-      <c r="P87" s="30" t="s">
+      <c r="P87" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="Q87" s="31">
+      <c r="Q87" s="48">
         <f>I61</f>
         <v>1207893000</v>
       </c>
@@ -6067,10 +6016,10 @@
       <c r="I88" s="1">
         <v>-7244000</v>
       </c>
-      <c r="P88" s="32" t="s">
+      <c r="P88" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="Q88" s="33">
+      <c r="Q88" s="50">
         <f>Q85/(Q86+Q87)</f>
         <v>0</v>
       </c>
@@ -6111,10 +6060,10 @@
         <f t="shared" ref="I89" si="22">(-1*I88)/I3</f>
         <v>5.6417445482866042E-3</v>
       </c>
-      <c r="P89" s="30" t="s">
+      <c r="P89" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="Q89" s="31">
+      <c r="Q89" s="48">
         <f>I27</f>
         <v>12144000</v>
       </c>
@@ -6147,10 +6096,10 @@
       <c r="I90" s="1">
         <v>0</v>
       </c>
-      <c r="P90" s="30" t="s">
+      <c r="P90" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q90" s="31">
+      <c r="Q90" s="48">
         <f>I25</f>
         <v>-333254000</v>
       </c>
@@ -6183,10 +6132,10 @@
       <c r="I91" s="1">
         <v>-1444796600</v>
       </c>
-      <c r="P91" s="32" t="s">
+      <c r="P91" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="Q91" s="33">
+      <c r="Q91" s="50">
         <f>Q89/Q90</f>
         <v>-3.6440672880145478E-2</v>
       </c>
@@ -6219,10 +6168,10 @@
       <c r="I92" s="1">
         <v>1425000000</v>
       </c>
-      <c r="P92" s="34" t="s">
+      <c r="P92" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="Q92" s="35">
+      <c r="Q92" s="50">
         <f>Q88*(1-Q91)</f>
         <v>0</v>
       </c>
@@ -6255,10 +6204,10 @@
       <c r="I93" s="1">
         <v>-3098000</v>
       </c>
-      <c r="P93" s="77" t="s">
+      <c r="P93" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="Q93" s="78"/>
+      <c r="Q93" s="71"/>
     </row>
     <row r="94" spans="1:17" ht="19" customHeight="1">
       <c r="A94" s="6" t="s">
@@ -6288,12 +6237,12 @@
       <c r="I94" s="10">
         <v>-33308000</v>
       </c>
-      <c r="P94" s="30" t="s">
+      <c r="P94" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="Q94" s="36">
+      <c r="Q94" s="51">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.7679999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20">
@@ -6324,12 +6273,12 @@
       <c r="I95" s="1">
         <v>-4510000</v>
       </c>
-      <c r="P95" s="30" t="s">
+      <c r="P95" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="Q95" s="37" cm="1">
+      <c r="Q95" s="52" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.0806</v>
+        <v>1.0947</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20">
@@ -6360,10 +6309,10 @@
       <c r="I96" s="1">
         <v>34710000</v>
       </c>
-      <c r="P96" s="30" t="s">
+      <c r="P96" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="Q96" s="36">
+      <c r="Q96" s="51">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6395,12 +6344,12 @@
       <c r="I97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P97" s="34" t="s">
+      <c r="P97" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="Q97" s="35">
+      <c r="Q97" s="50">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>8.7756766000000014E-2</v>
+        <v>8.8386504000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19">
@@ -6431,10 +6380,10 @@
       <c r="I98" s="1">
         <v>0</v>
       </c>
-      <c r="P98" s="77" t="s">
+      <c r="P98" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="Q98" s="78"/>
+      <c r="Q98" s="71"/>
     </row>
     <row r="99" spans="1:21" ht="19" customHeight="1">
       <c r="A99" s="5" t="s">
@@ -6464,10 +6413,10 @@
       <c r="I99" s="1">
         <v>0</v>
       </c>
-      <c r="P99" s="30" t="s">
+      <c r="P99" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="Q99" s="31">
+      <c r="Q99" s="48">
         <f>Q86+Q87</f>
         <v>1216579000</v>
       </c>
@@ -6500,12 +6449,12 @@
       <c r="I100" s="10">
         <v>30200000</v>
       </c>
-      <c r="P100" s="32" t="s">
+      <c r="P100" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="Q100" s="33">
+      <c r="Q100" s="50">
         <f>Q99/Q103</f>
-        <v>4.2326672571720958E-2</v>
+        <v>4.1017264150732653E-2</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20">
@@ -6536,12 +6485,12 @@
       <c r="I101" s="1">
         <v>-2003000</v>
       </c>
-      <c r="P101" s="30" t="s">
+      <c r="P101" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="Q101" s="38" cm="1">
+      <c r="Q101" s="53" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>27526030000</v>
+        <v>28443590326</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20">
@@ -6572,12 +6521,12 @@
       <c r="I102" s="10">
         <v>-18081000</v>
       </c>
-      <c r="P102" s="32" t="s">
+      <c r="P102" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="Q102" s="33">
+      <c r="Q102" s="50">
         <f>Q101/Q103</f>
-        <v>0.95767332742827904</v>
+        <v>0.9589827358492673</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20">
@@ -6608,12 +6557,12 @@
       <c r="I103" s="1">
         <v>474000000</v>
       </c>
-      <c r="P103" s="34" t="s">
+      <c r="P103" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="Q103" s="39">
+      <c r="Q103" s="54">
         <f>Q99+Q101</f>
-        <v>28742609000</v>
+        <v>29660169326</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="20" thickBot="1">
@@ -6644,10 +6593,10 @@
       <c r="I104" s="11">
         <v>456339000</v>
       </c>
-      <c r="P104" s="77" t="s">
+      <c r="P104" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="Q104" s="78"/>
+      <c r="Q104" s="71"/>
     </row>
     <row r="105" spans="1:21" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
@@ -6678,42 +6627,42 @@
         <v>-153145200</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="23"/>
+        <f>(H22*(1-0.2))+H77+H88+H81</f>
         <v>-194081200</v>
       </c>
       <c r="I105" s="1">
         <f>(I22*(1-0.2))+I77+I88+I81</f>
         <v>-243817000</v>
       </c>
-      <c r="J105" s="40">
+      <c r="J105" s="28">
         <f>I105*(1+$Q$106)</f>
         <v>-297947599.00797939</v>
       </c>
-      <c r="K105" s="40">
+      <c r="K105" s="28">
         <f t="shared" ref="K105:N105" si="24">J105*(1+$Q$106)</f>
         <v>-364095906.99015939</v>
       </c>
-      <c r="L105" s="40">
+      <c r="L105" s="28">
         <f t="shared" si="24"/>
         <v>-444930014.29904634</v>
       </c>
-      <c r="M105" s="40">
+      <c r="M105" s="28">
         <f t="shared" si="24"/>
         <v>-543710362.6366775</v>
       </c>
-      <c r="N105" s="40">
+      <c r="N105" s="28">
         <f t="shared" si="24"/>
         <v>-664421254.88934672</v>
       </c>
-      <c r="O105" s="41" t="s">
+      <c r="O105" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="P105" s="23" t="s">
+      <c r="P105" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="Q105" s="24">
+      <c r="Q105" s="56">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>8.4042314099564877E-2</v>
+        <v>8.4761131418072205E-2</v>
       </c>
       <c r="R105" s="15"/>
       <c r="S105" s="15"/>
@@ -6753,34 +6702,34 @@
         <f t="shared" si="25"/>
         <v>17.510989010989011</v>
       </c>
-      <c r="J106" s="57">
+      <c r="J106" s="31">
         <v>147800000</v>
       </c>
-      <c r="K106" s="57">
+      <c r="K106" s="31">
         <v>210800000</v>
       </c>
-      <c r="L106" s="57">
+      <c r="L106" s="31">
         <v>327100000</v>
       </c>
-      <c r="M106" s="57">
+      <c r="M106" s="31">
         <v>416000000</v>
       </c>
-      <c r="N106" s="57">
+      <c r="N106" s="31">
         <v>621500000</v>
       </c>
-      <c r="O106" s="41" t="s">
+      <c r="O106" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="P106" s="42" t="s">
+      <c r="P106" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="Q106" s="43">
+      <c r="Q106" s="58">
         <f>(SUM(J4:N4)/5)</f>
         <v>0.22201322716619179</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="19">
-      <c r="A107" s="70" t="s">
+      <c r="A107" s="44" t="s">
         <v>161</v>
       </c>
       <c r="B107" s="1">
@@ -6807,139 +6756,139 @@
       <c r="I107" s="1">
         <v>-20214000</v>
       </c>
-      <c r="J107" s="41"/>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="41"/>
-      <c r="N107" s="58">
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="32">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>10789507655.911724</v>
-      </c>
-      <c r="O107" s="44" t="s">
+        <v>10659729574.787722</v>
+      </c>
+      <c r="O107" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="P107" s="45" t="s">
+      <c r="P107" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="Q107" s="46">
+      <c r="Q107" s="60">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="19">
-      <c r="J108" s="58">
+      <c r="J108" s="32">
         <f t="shared" ref="J108:M108" si="26">J107+J106</f>
         <v>147800000</v>
       </c>
-      <c r="K108" s="58">
+      <c r="K108" s="32">
         <f t="shared" si="26"/>
         <v>210800000</v>
       </c>
-      <c r="L108" s="58">
+      <c r="L108" s="32">
         <f t="shared" si="26"/>
         <v>327100000</v>
       </c>
-      <c r="M108" s="58">
+      <c r="M108" s="32">
         <f t="shared" si="26"/>
         <v>416000000</v>
       </c>
-      <c r="N108" s="58">
+      <c r="N108" s="32">
         <f>N107+N106</f>
-        <v>11411007655.911724</v>
-      </c>
-      <c r="O108" s="44" t="s">
+        <v>11281229574.787722</v>
+      </c>
+      <c r="O108" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="P108" s="47" t="s">
+      <c r="P108" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="Q108" s="48">
+      <c r="Q108" s="58">
         <f>Q105</f>
-        <v>8.4042314099564877E-2</v>
+        <v>8.4761131418072205E-2</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="19">
-      <c r="J109" s="73" t="s">
+      <c r="J109" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="K109" s="74"/>
+      <c r="K109" s="68"/>
     </row>
     <row r="110" spans="1:21" ht="20">
-      <c r="J110" s="49" t="s">
+      <c r="J110" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="K110" s="38">
+      <c r="K110" s="53">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>8496147952.1971102</v>
+        <v>8382887246.2119761</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="20">
-      <c r="J111" s="49" t="s">
+      <c r="J111" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="K111" s="38">
+      <c r="K111" s="53">
         <f>I40</f>
         <v>1836630000</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="20">
-      <c r="J112" s="49" t="s">
+      <c r="J112" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="K112" s="38">
+      <c r="K112" s="53">
         <f>Q99</f>
         <v>1216579000</v>
       </c>
     </row>
     <row r="113" spans="10:11" ht="20">
-      <c r="J113" s="49" t="s">
+      <c r="J113" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="K113" s="38">
+      <c r="K113" s="53">
         <f>K110+K111-K112</f>
-        <v>9116198952.1971092</v>
+        <v>9002938246.2119751</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20">
-      <c r="J114" s="49" t="s">
+      <c r="J114" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="K114" s="50">
+      <c r="K114" s="62">
         <f>I34*(1+(0.05*5))</f>
         <v>85785333.75</v>
       </c>
     </row>
     <row r="115" spans="10:11" ht="20">
-      <c r="J115" s="51" t="s">
+      <c r="J115" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="K115" s="56">
+      <c r="K115" s="64">
         <f>K113/K114</f>
-        <v>106.26756991776708</v>
+        <v>104.94728938688748</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20">
-      <c r="J116" s="49" t="s">
+      <c r="J116" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="K116" s="52" cm="1">
+      <c r="K116" s="65" cm="1">
         <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>389.99</v>
+        <v>402.99</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20">
-      <c r="J117" s="53" t="s">
+      <c r="J117" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="K117" s="54">
+      <c r="K117" s="66">
         <f>K115/K116-1</f>
-        <v>-0.72751206462276707</v>
+        <v>-0.73957842778508787</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20">
-      <c r="J118" s="53" t="s">
+      <c r="J118" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="K118" s="55" t="str">
+      <c r="K118" s="67" t="str">
         <f>IF(K115&gt;K116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/MongoDB.xlsx
+++ b/Technology/Software/MongoDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA60A92-1065-7C4D-B115-577C9BFB3940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9684DE70-3666-754D-ACBC-124CC1BDA448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2130,9 +2130,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2141,19 +2139,33 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
-      <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2164,22 +2176,22 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>3.7679999999999998E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2332,13 +2344,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>414.48</v>
+    <v>418.69990000000001</v>
     <v>135.15</v>
-    <v>1.0947</v>
-    <v>4.97</v>
-    <v>1.2487E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.1373</v>
+    <v>-10.4</v>
+    <v>-2.6063999999999997E-2</v>
     <v>USD</v>
     <v>MongoDB, Inc. is a developer data platform company. Its developer data platform is an integrated set of databases and related services that allow development teams to address the growing variety of modern application requirements. Its core offerings are MongoDB Atlas and MongoDB Enterprise Advanced. MongoDB Atlas is its managed multi-cloud database-as-a-service offering that includes an integrated set of database and related services. MongoDB Atlas provides customers with a managed offering that includes automated provisioning and healing, comprehensive system monitoring, managed backup and restore, default security and other features. MongoDB Enterprise Advanced is its self-managed commercial offering for enterprise customers that can run in the cloud, on-premises or in a hybrid environment. It provides professional services to its customers, including consulting and training. It has over 40,800 customers spanning a range of industries in more than 100 countries around the world.</v>
     <v>4619</v>
@@ -2346,25 +2356,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1633 Broadway Fl 38, NEW YORK, NY, 10019-6763 US</v>
-    <v>407.03</v>
+    <v>403.73989999999998</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45106.999985185153</v>
+    <v>45114.999548344531</v>
     <v>4</v>
-    <v>395.55</v>
-    <v>28443590326</v>
+    <v>387.73</v>
+    <v>27429330000</v>
     <v>MONGODB, INC.</v>
     <v>MONGODB, INC.</v>
-    <v>400</v>
-    <v>398.02</v>
-    <v>402.99</v>
-    <v>402.99</v>
+    <v>400.03</v>
+    <v>399.02</v>
+    <v>388.62</v>
     <v>70581380</v>
     <v>MDB</v>
     <v>MONGODB, INC. (XNAS:MDB)</v>
-    <v>1809917</v>
-    <v>2339400</v>
+    <v>777</v>
+    <v>2319118</v>
     <v>2007</v>
   </rv>
   <rv s="4">
@@ -2408,8 +2417,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2430,7 +2437,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2447,7 +2453,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2458,16 +2464,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2538,19 +2541,13 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
-      <v>1</v>
-      <v>1</v>
-      <v>6</v>
     </spb>
     <spb s="5">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -2603,9 +2600,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2613,9 +2607,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -2984,10 +2975,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L93" sqref="L93"/>
+      <selection pane="bottomRight" activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3690,15 +3681,15 @@
       </c>
       <c r="P16" s="33">
         <f>Q101/I3</f>
-        <v>22.152328914330219</v>
+        <v>21.362406542056075</v>
       </c>
       <c r="Q16" s="33">
         <f>Q101/I28</f>
-        <v>-82.350188263973735</v>
+        <v>-79.413690872558618</v>
       </c>
       <c r="R16" s="34">
         <f>Q101/I107</f>
-        <v>-1407.1232970218659</v>
+        <v>-1356.9471653309588</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19">
@@ -3820,15 +3811,15 @@
       </c>
       <c r="P19" s="36">
         <f>Q101/J3</f>
-        <v>18.49388187646294</v>
+        <v>17.834414824447336</v>
       </c>
       <c r="Q19" s="33">
         <f>Q101/J28</f>
-        <v>225.38502635499208</v>
+        <v>217.34809825673534</v>
       </c>
       <c r="R19" s="34">
         <f>Q101/J105</f>
-        <v>-95.465076478895355</v>
+        <v>-92.060919743358667</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1">
@@ -3975,7 +3966,7 @@
       </c>
       <c r="R22" s="46">
         <f>I107/Q101</f>
-        <v>-7.106697772089125E-4</v>
+        <v>-7.3694836877167614E-4</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19">
@@ -6242,7 +6233,7 @@
       </c>
       <c r="Q94" s="51">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7679999999999998E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20">
@@ -6278,7 +6269,7 @@
       </c>
       <c r="Q95" s="52" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.0947</v>
+        <v>1.1373</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20">
@@ -6349,7 +6340,7 @@
       </c>
       <c r="Q97" s="50">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>8.8386504000000005E-2</v>
+        <v>8.997529600000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19">
@@ -6454,7 +6445,7 @@
       </c>
       <c r="Q100" s="50">
         <f>Q99/Q103</f>
-        <v>4.1017264150732653E-2</v>
+        <v>4.2469554727692531E-2</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20">
@@ -6490,7 +6481,7 @@
       </c>
       <c r="Q101" s="53" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>28443590326</v>
+        <v>27429330000</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20">
@@ -6526,7 +6517,7 @@
       </c>
       <c r="Q102" s="50">
         <f>Q101/Q103</f>
-        <v>0.9589827358492673</v>
+        <v>0.95753044527230746</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20">
@@ -6562,7 +6553,7 @@
       </c>
       <c r="Q103" s="54">
         <f>Q99+Q101</f>
-        <v>29660169326</v>
+        <v>28645909000</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="20" thickBot="1">
@@ -6603,7 +6594,7 @@
         <v>159</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:H105" si="23">(B22*(1-0.2))+B77+B88+B81</f>
+        <f t="shared" ref="B105:G105" si="23">(B22*(1-0.2))+B77+B88+B81</f>
         <v>-44866400</v>
       </c>
       <c r="C105" s="1">
@@ -6662,7 +6653,7 @@
       </c>
       <c r="Q105" s="56">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>8.4761131418072205E-2</v>
+        <v>8.6154085242387671E-2</v>
       </c>
       <c r="R105" s="15"/>
       <c r="S105" s="15"/>
@@ -6762,7 +6753,7 @@
       <c r="M107" s="29"/>
       <c r="N107" s="32">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>10659729574.787722</v>
+        <v>10416924682.546814</v>
       </c>
       <c r="O107" s="30" t="s">
         <v>145</v>
@@ -6793,7 +6784,7 @@
       </c>
       <c r="N108" s="32">
         <f>N107+N106</f>
-        <v>11281229574.787722</v>
+        <v>11038424682.546814</v>
       </c>
       <c r="O108" s="30" t="s">
         <v>142</v>
@@ -6803,7 +6794,7 @@
       </c>
       <c r="Q108" s="58">
         <f>Q105</f>
-        <v>8.4761131418072205E-2</v>
+        <v>8.6154085242387671E-2</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="19">
@@ -6818,7 +6809,7 @@
       </c>
       <c r="K110" s="53">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>8382887246.2119761</v>
+        <v>8171071920.2228699</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="20">
@@ -6845,7 +6836,7 @@
       </c>
       <c r="K113" s="53">
         <f>K110+K111-K112</f>
-        <v>9002938246.2119751</v>
+        <v>8791122920.2228699</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20">
@@ -6863,7 +6854,7 @@
       </c>
       <c r="K115" s="64">
         <f>K113/K114</f>
-        <v>104.94728938688748</v>
+        <v>102.47815723189245</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20">
@@ -6872,7 +6863,7 @@
       </c>
       <c r="K116" s="65" cm="1">
         <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>402.99</v>
+        <v>388.62</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20">
@@ -6881,7 +6872,7 @@
       </c>
       <c r="K117" s="66">
         <f>K115/K116-1</f>
-        <v>-0.73957842778508787</v>
+        <v>-0.73630241049896439</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20">

--- a/Technology/Software/MongoDB.xlsx
+++ b/Technology/Software/MongoDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9684DE70-3666-754D-ACBC-124CC1BDA448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC15446-8851-B541-A1EB-0F93D5E30D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2140,29 +2140,19 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
       <sheetName val="Aggressive Growth"/>
       <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2181,17 +2171,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2978,7 +2958,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L99" sqref="L99"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6233,7 +6213,7 @@
       </c>
       <c r="Q94" s="51">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20">
@@ -6340,7 +6320,7 @@
       </c>
       <c r="Q97" s="50">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>8.997529600000001E-2</v>
+        <v>9.0162024000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19">
@@ -6653,7 +6633,7 @@
       </c>
       <c r="Q105" s="56">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>8.6154085242387671E-2</v>
+        <v>8.6332882987372475E-2</v>
       </c>
       <c r="R105" s="15"/>
       <c r="S105" s="15"/>
@@ -6753,7 +6733,7 @@
       <c r="M107" s="29"/>
       <c r="N107" s="32">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>10416924682.546814</v>
+        <v>10386557242.566872</v>
       </c>
       <c r="O107" s="30" t="s">
         <v>145</v>
@@ -6784,7 +6764,7 @@
       </c>
       <c r="N108" s="32">
         <f>N107+N106</f>
-        <v>11038424682.546814</v>
+        <v>11008057242.566872</v>
       </c>
       <c r="O108" s="30" t="s">
         <v>142</v>
@@ -6794,7 +6774,7 @@
       </c>
       <c r="Q108" s="58">
         <f>Q105</f>
-        <v>8.6154085242387671E-2</v>
+        <v>8.6332882987372475E-2</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="19">
@@ -6809,7 +6789,7 @@
       </c>
       <c r="K110" s="53">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>8171071920.2228699</v>
+        <v>8144588561.9376974</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="20">
@@ -6836,7 +6816,7 @@
       </c>
       <c r="K113" s="53">
         <f>K110+K111-K112</f>
-        <v>8791122920.2228699</v>
+        <v>8764639561.9376984</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20">
@@ -6854,7 +6834,7 @@
       </c>
       <c r="K115" s="64">
         <f>K113/K114</f>
-        <v>102.47815723189245</v>
+        <v>102.16944061184233</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20">
@@ -6872,7 +6852,7 @@
       </c>
       <c r="K117" s="66">
         <f>K115/K116-1</f>
-        <v>-0.73630241049896439</v>
+        <v>-0.73709680250156362</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20">

--- a/Technology/Software/MongoDB.xlsx
+++ b/Technology/Software/MongoDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC15446-8851-B541-A1EB-0F93D5E30D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608B5FE-82EA-9943-8D28-F384F08A1985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="170">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -567,13 +567,22 @@
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
-    <t>Shares (5% dilution)</t>
-  </si>
-  <si>
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>``</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>4Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Shares (2% dilution)</t>
   </si>
 </sst>
 </file>
@@ -589,7 +598,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -706,6 +715,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -880,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -931,13 +947,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -969,55 +978,117 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1071,7 +1142,6 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>MongoDB</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1108,15 +1178,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6106250877112591E-2"/>
-          <c:y val="0.1225373745187197"/>
-          <c:w val="0.87170362337139584"/>
-          <c:h val="0.7609528151043965"/>
+          <c:x val="9.5059581320450878E-2"/>
+          <c:y val="0.14293597679588083"/>
+          <c:w val="0.83795169082125609"/>
+          <c:h val="0.68346418832159184"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1165,12 +1235,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$I$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>65271000</c:v>
                 </c:pt>
@@ -1194,13 +1312,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1284000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1606000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1949000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2460000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3150000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4087000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EFC8-0B4B-BA0E-AA2472D19531}"/>
+              <c16:uniqueId val="{00000000-0353-1848-824C-54E3C38D9124}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1209,11 +1342,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1251,42 +1384,105 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$I$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-68958000</c:v>
+                  <c:v>-73486000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-82202000</c:v>
+                  <c:v>-86681000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-91361000</c:v>
+                  <c:v>-96359000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-86247000</c:v>
+                  <c:v>-99011000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-135421000</c:v>
+                  <c:v>-175522000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-182054000</c:v>
+                  <c:v>-266944000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-285244000</c:v>
+                  <c:v>-306866000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50909000</c:v>
+                  <c:v>-345398000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>193500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>236400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>362000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>481000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>813000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EFC8-0B4B-BA0E-AA2472D19531}"/>
+              <c16:uniqueId val="{00000001-0353-1848-824C-54E3C38D9124}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1337,12 +1533,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$I$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$N$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>-47429000</c:v>
                 </c:pt>
@@ -1366,13 +1610,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-20214000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>217000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>283000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>434000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>628000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>750000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EFC8-0B4B-BA0E-AA2472D19531}"/>
+              <c16:uniqueId val="{00000002-0353-1848-824C-54E3C38D9124}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1384,13 +1643,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="698407487"/>
-        <c:axId val="698442431"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="71385791"/>
+        <c:axId val="71387791"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="698407487"/>
+        <c:axId val="71385791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1677,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1430,7 +1689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698442431"/>
+        <c:crossAx val="71387791"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1438,7 +1697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="698442431"/>
+        <c:axId val="71387791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,7 +1745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698407487"/>
+        <c:crossAx val="71385791"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1504,10 +1763,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35570447320745918"/>
-          <c:y val="0.91672957816446143"/>
-          <c:w val="0.29902907873537982"/>
-          <c:h val="5.0955083637223432E-2"/>
+          <c:x val="0.34972853031052276"/>
+          <c:y val="0.88836967500716923"/>
+          <c:w val="0.30569581700838122"/>
+          <c:h val="5.9437495547855754E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1614,7 +1873,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1852,7 +2111,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2086,23 +2344,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>29483</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>23132</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1635124</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1598839</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5EF9A1-E19F-C83B-4CF6-4A0D8EC1FC2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF9E0DC-F9AB-976A-8105-6565425A20AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,32 +2388,25 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
-      <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
+      <sheetName val="Technology - Software"/>
+      <sheetName val="Technology - Hardware"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodity Stocks"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2164,14 +2415,19 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="9">
+        <row r="8">
+          <cell r="C8">
+            <v>4.6289999999999998E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2324,11 +2580,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>418.69990000000001</v>
+    <v>439</v>
     <v>135.15</v>
-    <v>1.1373</v>
-    <v>-10.4</v>
-    <v>-2.6063999999999997E-2</v>
+    <v>1.1566000000000001</v>
+    <v>-2.46</v>
+    <v>-6.6820000000000004E-3</v>
+    <v>-0.3</v>
+    <v>-8.2030000000000004E-4</v>
     <v>USD</v>
     <v>MongoDB, Inc. is a developer data platform company. Its developer data platform is an integrated set of databases and related services that allow development teams to address the growing variety of modern application requirements. Its core offerings are MongoDB Atlas and MongoDB Enterprise Advanced. MongoDB Atlas is its managed multi-cloud database-as-a-service offering that includes an integrated set of database and related services. MongoDB Atlas provides customers with a managed offering that includes automated provisioning and healing, comprehensive system monitoring, managed backup and restore, default security and other features. MongoDB Enterprise Advanced is its self-managed commercial offering for enterprise customers that can run in the cloud, on-premises or in a hybrid environment. It provides professional services to its customers, including consulting and training. It has over 40,800 customers spanning a range of industries in more than 100 countries around the world.</v>
     <v>4619</v>
@@ -2336,24 +2594,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1633 Broadway Fl 38, NEW YORK, NY, 10019-6763 US</v>
-    <v>403.73989999999998</v>
+    <v>373</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.999548344531</v>
+    <v>45216.999603599215</v>
     <v>4</v>
-    <v>387.73</v>
-    <v>27429330000</v>
+    <v>361.35</v>
+    <v>26090727534</v>
     <v>MONGODB, INC.</v>
     <v>MONGODB, INC.</v>
-    <v>400.03</v>
-    <v>399.02</v>
-    <v>388.62</v>
-    <v>70581380</v>
+    <v>362.3</v>
+    <v>368.16</v>
+    <v>365.7</v>
+    <v>365.4</v>
+    <v>71344620</v>
     <v>MDB</v>
     <v>MONGODB, INC. (XNAS:MDB)</v>
-    <v>777</v>
-    <v>2319118</v>
+    <v>965535</v>
+    <v>1041735</v>
     <v>2007</v>
   </rv>
   <rv s="4">
@@ -2397,6 +2656,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2417,6 +2678,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2433,7 +2695,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2444,13 +2706,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2521,13 +2786,19 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
+      <v>1</v>
+      <v>1</v>
+      <v>6</v>
     </spb>
     <spb s="5">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -2580,6 +2851,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2587,6 +2861,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -2952,13 +3229,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3084,19 +3361,19 @@
         <v>1284000000</v>
       </c>
       <c r="J3" s="24">
-        <v>1538000000</v>
+        <v>1606000000</v>
       </c>
       <c r="K3" s="24">
-        <v>1847000000</v>
+        <v>1949000000</v>
       </c>
       <c r="L3" s="24">
-        <v>2274000000</v>
+        <v>2460000000</v>
       </c>
       <c r="M3" s="24">
-        <v>2774000000</v>
+        <v>3150000000</v>
       </c>
       <c r="N3" s="24">
-        <v>3496000000</v>
+        <v>4087000000</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>107</v>
@@ -3116,53 +3393,53 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="75">
         <f>(C3/B3)-1</f>
         <v>0.55287953302385429</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="75">
         <f>(D3/C3)-1</f>
         <v>0.52448746028927173</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="75">
         <f>(E3/D3)-1</f>
         <v>0.72804638911719599</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="75">
         <f t="shared" ref="F4:N4" si="0">(F3/E3)-1</f>
         <v>0.57938101087575267</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="75">
         <f t="shared" si="0"/>
         <v>0.39993360523570143</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="75">
         <f t="shared" si="0"/>
         <v>0.48003319895660423</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="75">
         <f t="shared" si="0"/>
         <v>0.46947407934702245</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.19781931464174463</v>
+        <v>0.25077881619937692</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20091027308192455</v>
+        <v>0.21357409713574094</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.23118570655116399</v>
+        <v>0.26218573627501285</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.2198768689533861</v>
+        <v>0.28048780487804881</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.26027397260273966</v>
+        <v>0.29746031746031742</v>
       </c>
       <c r="O4" s="17">
         <f>(I4+H4+G4)/3</f>
@@ -3178,7 +3455,7 @@
       </c>
       <c r="R4" s="17">
         <f>(I106+H106+G106)/3</f>
-        <v>5.7252470286254047</v>
+        <v>-2.6328360849996641E-2</v>
       </c>
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
@@ -3249,16 +3526,20 @@
       <c r="I6" s="10">
         <v>934700000</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="J6" s="34">
+        <f>J3*J7</f>
+        <v>1206748400</v>
+      </c>
+      <c r="O6" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="R6" s="73" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3291,21 +3572,24 @@
         <f>I6/I3</f>
         <v>0.72795950155763245</v>
       </c>
+      <c r="J7" s="2">
+        <v>0.75139999999999996</v>
+      </c>
       <c r="O7" s="17">
-        <f>I7</f>
-        <v>0.72795950155763245</v>
+        <f>J7</f>
+        <v>0.75139999999999996</v>
       </c>
       <c r="P7" s="18">
-        <f>I21</f>
-        <v>3.9648753894080999E-2</v>
+        <f>J21</f>
+        <v>0.13032378580323786</v>
       </c>
       <c r="Q7" s="18">
-        <f>I30</f>
-        <v>-0.35120000000000001</v>
+        <f>J30</f>
+        <v>0.12048567870485678</v>
       </c>
       <c r="R7" s="18">
-        <f>I107/I3</f>
-        <v>-1.5742990654205608E-2</v>
+        <f>J107/J3</f>
+        <v>0.13511830635118308</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19">
@@ -3551,7 +3835,7 @@
         <f>I22/(I72+I56+I61)</f>
         <v>-0.17721860019518559</v>
       </c>
-      <c r="R13" s="35">
+      <c r="R13" s="30">
         <f>I67/I72</f>
         <v>2.5008316340053116</v>
       </c>
@@ -3656,20 +3940,20 @@
         <v>1630691000</v>
       </c>
       <c r="O16" s="25">
-        <f>(I35+H35+G35+F35+E35)/5</f>
-        <v>0.29651737992603422</v>
-      </c>
-      <c r="P16" s="33">
-        <f>Q101/I3</f>
-        <v>21.362406542056075</v>
-      </c>
-      <c r="Q16" s="33">
-        <f>Q101/I28</f>
-        <v>-79.413690872558618</v>
-      </c>
-      <c r="R16" s="34">
-        <f>Q101/I107</f>
-        <v>-1356.9471653309588</v>
+        <f>SUM(F35:J35)/5</f>
+        <v>6.5663481616443906E-2</v>
+      </c>
+      <c r="P16" s="28">
+        <f>Q102/I3</f>
+        <v>20.319881257009346</v>
+      </c>
+      <c r="Q16" s="28">
+        <f>Q102/I28</f>
+        <v>-75.53815463320575</v>
+      </c>
+      <c r="R16" s="29">
+        <f>Q102/I107</f>
+        <v>-1290.7256126447016</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19">
@@ -3770,36 +4054,36 @@
       <c r="I19" s="10">
         <v>50909000</v>
       </c>
-      <c r="J19" s="39">
-        <v>135700000</v>
-      </c>
-      <c r="K19" s="39">
-        <v>182600000</v>
-      </c>
-      <c r="L19" s="39">
-        <v>273800000</v>
-      </c>
-      <c r="M19" s="39">
-        <v>435000000</v>
-      </c>
-      <c r="N19" s="39">
-        <v>612000000</v>
+      <c r="J19" s="34">
+        <v>209300000</v>
+      </c>
+      <c r="K19" s="34">
+        <v>283000000</v>
+      </c>
+      <c r="L19" s="34">
+        <v>435200000</v>
+      </c>
+      <c r="M19" s="34">
+        <v>520000000</v>
+      </c>
+      <c r="N19" s="34">
+        <v>650000000</v>
       </c>
       <c r="O19" s="27">
         <f>I40-I56-I61</f>
         <v>620051000</v>
       </c>
-      <c r="P19" s="36">
-        <f>Q101/J3</f>
-        <v>17.834414824447336</v>
-      </c>
-      <c r="Q19" s="33">
-        <f>Q101/J28</f>
-        <v>217.34809825673534</v>
-      </c>
-      <c r="R19" s="34">
-        <f>Q101/J105</f>
-        <v>-92.060919743358667</v>
+      <c r="P19" s="31">
+        <f>Q102/J3</f>
+        <v>16.245783022415939</v>
+      </c>
+      <c r="Q19" s="28">
+        <f>Q102/J28</f>
+        <v>134.83580120930233</v>
+      </c>
+      <c r="R19" s="29">
+        <f>Q102/J105</f>
+        <v>-84.867707853937461</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1">
@@ -3837,23 +4121,23 @@
       </c>
       <c r="J20" s="16">
         <f t="shared" ref="J20" si="5">(J19/I19)-1</f>
-        <v>1.665540474179418</v>
+        <v>3.1112573415309672</v>
       </c>
       <c r="K20" s="16">
         <f t="shared" ref="K20" si="6">(K19/J19)-1</f>
-        <v>0.34561532792925576</v>
+        <v>0.35212613473483034</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" ref="L20" si="7">(L19/K19)-1</f>
-        <v>0.49945235487404172</v>
+        <v>0.53780918727915195</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" ref="M20" si="8">(M19/L19)-1</f>
-        <v>0.5887509130752373</v>
+        <v>0.19485294117647056</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20" si="9">(N19/M19)-1</f>
-        <v>0.40689655172413786</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="20">
@@ -3881,35 +4165,38 @@
       <c r="H21" s="2">
         <v>-0.32640000000000002</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="33">
         <f>I19/I3</f>
         <v>3.9648753894080999E-2</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="35">
         <f t="shared" ref="J21:N21" si="10">J19/J3</f>
-        <v>8.8231469440832253E-2</v>
-      </c>
-      <c r="K21" s="40">
+        <v>0.13032378580323786</v>
+      </c>
+      <c r="K21" s="35">
         <f t="shared" si="10"/>
-        <v>9.886302111532215E-2</v>
-      </c>
-      <c r="L21" s="40">
+        <v>0.14520266803488968</v>
+      </c>
+      <c r="L21" s="35">
         <f t="shared" si="10"/>
-        <v>0.12040457343887423</v>
-      </c>
-      <c r="M21" s="40">
+        <v>0.17691056910569106</v>
+      </c>
+      <c r="M21" s="35">
         <f t="shared" si="10"/>
-        <v>0.15681326604181686</v>
-      </c>
-      <c r="N21" s="40">
+        <v>0.16507936507936508</v>
+      </c>
+      <c r="N21" s="35">
         <f t="shared" si="10"/>
-        <v>0.17505720823798626</v>
+        <v>0.15904086126743333</v>
+      </c>
+      <c r="P21" s="47" t="s">
+        <v>168</v>
       </c>
       <c r="Q21" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R21" s="21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="19">
@@ -3937,16 +4224,20 @@
       <c r="H22" s="10">
         <v>-289364000</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="32">
         <v>-346655000</v>
       </c>
-      <c r="Q22" s="45">
-        <f>(-1*I98)/Q101</f>
+      <c r="P22" s="17">
+        <f>SUM(K29:N29)/4</f>
+        <v>0.44299156870844419</v>
+      </c>
+      <c r="Q22" s="40">
+        <f>(-1*I98)/Q102</f>
         <v>0</v>
       </c>
-      <c r="R22" s="46">
-        <f>I107/Q101</f>
-        <v>-7.3694836877167614E-4</v>
+      <c r="R22" s="41">
+        <f>J107/Q102</f>
+        <v>8.3171310465458489E-3</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19">
@@ -4123,19 +4414,19 @@
       <c r="I28" s="11">
         <v>-345398000</v>
       </c>
-      <c r="J28" s="41">
-        <v>126200000</v>
-      </c>
-      <c r="K28" s="41">
-        <v>171100000</v>
-      </c>
-      <c r="L28" s="41">
-        <v>246000000</v>
-      </c>
-      <c r="M28" s="41">
-        <v>579600000</v>
-      </c>
-      <c r="N28" s="41">
+      <c r="J28" s="36">
+        <v>193500000</v>
+      </c>
+      <c r="K28" s="36">
+        <v>236400000</v>
+      </c>
+      <c r="L28" s="36">
+        <v>362000000</v>
+      </c>
+      <c r="M28" s="36">
+        <v>481000000</v>
+      </c>
+      <c r="N28" s="36">
         <v>813000000</v>
       </c>
     </row>
@@ -4174,23 +4465,23 @@
       </c>
       <c r="J29" s="16">
         <f t="shared" ref="J29" si="12">(J28/I28)-1</f>
-        <v>-1.3653755956896103</v>
+        <v>-1.5602232786524532</v>
       </c>
       <c r="K29" s="16">
         <f t="shared" ref="K29" si="13">(K28/J28)-1</f>
-        <v>0.35578446909667205</v>
+        <v>0.22170542635658919</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" ref="L29" si="14">(L28/K28)-1</f>
-        <v>0.43775569842197548</v>
+        <v>0.53130287648054142</v>
       </c>
       <c r="M29" s="16">
         <f t="shared" ref="M29" si="15">(M28/L28)-1</f>
-        <v>1.3560975609756096</v>
+        <v>0.32872928176795591</v>
       </c>
       <c r="N29" s="16">
         <f t="shared" ref="N29" si="16">(N28/M28)-1</f>
-        <v>0.40269151138716364</v>
+        <v>0.69022869022869027</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="19">
@@ -4221,25 +4512,25 @@
       <c r="I30" s="2">
         <v>-0.35120000000000001</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="37">
         <f>J28/J3</f>
-        <v>8.2054616384915471E-2</v>
-      </c>
-      <c r="K30" s="42">
+        <v>0.12048567870485678</v>
+      </c>
+      <c r="K30" s="37">
         <f t="shared" ref="K30:N30" si="17">K28/K3</f>
-        <v>9.2636708175419594E-2</v>
-      </c>
-      <c r="L30" s="42">
+        <v>0.12129297075423294</v>
+      </c>
+      <c r="L30" s="37">
         <f t="shared" si="17"/>
-        <v>0.10817941952506596</v>
-      </c>
-      <c r="M30" s="42">
+        <v>0.14715447154471545</v>
+      </c>
+      <c r="M30" s="37">
         <f t="shared" si="17"/>
-        <v>0.20894015861571738</v>
-      </c>
-      <c r="N30" s="42">
+        <v>0.15269841269841269</v>
+      </c>
+      <c r="N30" s="37">
         <f t="shared" si="17"/>
-        <v>0.23255148741418763</v>
+        <v>0.19892341570834352</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="19">
@@ -4270,20 +4561,21 @@
       <c r="I31" s="12">
         <v>-5.03</v>
       </c>
-      <c r="J31" s="43">
-        <v>1.79</v>
-      </c>
-      <c r="K31" s="43">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="L31" s="43">
-        <v>3.49</v>
-      </c>
-      <c r="M31" s="43">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="N31" s="43">
-        <v>11.53</v>
+      <c r="J31" s="38">
+        <v>2.71</v>
+      </c>
+      <c r="K31" s="38">
+        <v>3.31</v>
+      </c>
+      <c r="L31" s="38">
+        <v>5.07</v>
+      </c>
+      <c r="M31" s="38">
+        <v>6.73</v>
+      </c>
+      <c r="N31" s="38">
+        <f>N28/J34</f>
+        <v>11.395393233575286</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="19">
@@ -4315,7 +4607,7 @@
         <v>-5.03</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="19">
+    <row r="33" spans="1:10" ht="19">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -4343,8 +4635,12 @@
       <c r="I33" s="1">
         <v>68628267</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="19">
+      <c r="J33" s="1" cm="1">
+        <f t="array" ref="J33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>71344620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="19">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -4372,8 +4668,12 @@
       <c r="I34" s="1">
         <v>68628267</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="20" customHeight="1">
+      <c r="J34" s="1" cm="1">
+        <f t="array" ref="J34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>71344620</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -4383,7 +4683,7 @@
         <v>-5.5295227779249105E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:I35" si="18">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:J35" si="18">(D34-C34)/C34</f>
         <v>-0.3769470805153512</v>
       </c>
       <c r="E35" s="22">
@@ -4406,8 +4706,12 @@
         <f t="shared" si="18"/>
         <v>3.3770300982977244E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="19">
+      <c r="J35" s="22">
+        <f t="shared" si="18"/>
+        <v>3.9580673077465295E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="19">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -4436,7 +4740,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="21">
+    <row r="37" spans="1:10" ht="21">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -4463,7 +4767,7 @@
       </c>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="1:9" ht="19">
+    <row r="38" spans="1:10" ht="19">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -4492,7 +4796,7 @@
         <v>455826000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="19">
+    <row r="39" spans="1:10" ht="19">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -4521,7 +4825,7 @@
         <v>1380804000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="19">
+    <row r="40" spans="1:10" ht="19">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -4552,7 +4856,7 @@
         <v>1836630000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="19">
+    <row r="41" spans="1:10" ht="19">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -4581,7 +4885,7 @@
         <v>285192000</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="19">
+    <row r="42" spans="1:10" ht="19">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -4610,7 +4914,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="19">
+    <row r="43" spans="1:10" ht="19">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -4639,7 +4943,7 @@
         <v>1448115000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="19">
+    <row r="44" spans="1:10" ht="19">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4668,7 +4972,7 @@
         <v>2236584000</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="19">
+    <row r="45" spans="1:10" ht="19">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4697,7 +5001,7 @@
         <v>104370000</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="19">
+    <row r="46" spans="1:10" ht="19">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4726,7 +5030,7 @@
         <v>57775000</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="19">
+    <row r="47" spans="1:10" ht="19">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4755,7 +5059,7 @@
         <v>11428000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="19">
+    <row r="48" spans="1:10" ht="19">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -5785,7 +6089,7 @@
         <v>-91450000</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="21">
+    <row r="83" spans="1:17" ht="19">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -5813,12 +6117,8 @@
       <c r="I83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P83" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q83" s="70"/>
-    </row>
-    <row r="84" spans="1:17" ht="19">
+    </row>
+    <row r="84" spans="1:17" ht="19" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -5846,10 +6146,16 @@
       <c r="I84" s="1">
         <v>3161000</v>
       </c>
-      <c r="P84" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q84" s="71"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="49"/>
+      <c r="P84" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q84" s="80"/>
     </row>
     <row r="85" spans="1:17" ht="19" customHeight="1">
       <c r="A85" s="5" t="s">
@@ -5879,13 +6185,16 @@
       <c r="I85" s="1">
         <v>32978000</v>
       </c>
-      <c r="P85" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q85" s="48">
-        <f>I17</f>
-        <v>0</v>
-      </c>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="49"/>
+      <c r="P85" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q85" s="78"/>
     </row>
     <row r="86" spans="1:17" ht="20">
       <c r="A86" s="5" t="s">
@@ -5915,12 +6224,18 @@
       <c r="I86" s="1">
         <v>34882000</v>
       </c>
-      <c r="P86" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q86" s="48">
-        <f>I56</f>
-        <v>8686000</v>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q86" s="50">
+        <f>I17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="20">
@@ -5951,12 +6266,18 @@
       <c r="I87" s="10">
         <v>-12970000</v>
       </c>
-      <c r="P87" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q87" s="48">
-        <f>I61</f>
-        <v>1207893000</v>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="49"/>
+      <c r="O87" s="49"/>
+      <c r="P87" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q87" s="50">
+        <f>I56</f>
+        <v>8686000</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="20">
@@ -5987,12 +6308,18 @@
       <c r="I88" s="1">
         <v>-7244000</v>
       </c>
-      <c r="P88" s="49" t="s">
-        <v>129</v>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="49"/>
+      <c r="O88" s="49"/>
+      <c r="P88" s="42" t="s">
+        <v>128</v>
       </c>
       <c r="Q88" s="50">
-        <f>Q85/(Q86+Q87)</f>
-        <v>0</v>
+        <f>I61</f>
+        <v>1207893000</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="20" customHeight="1">
@@ -6031,12 +6358,18 @@
         <f t="shared" ref="I89" si="22">(-1*I88)/I3</f>
         <v>5.6417445482866042E-3</v>
       </c>
-      <c r="P89" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q89" s="48">
-        <f>I27</f>
-        <v>12144000</v>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49"/>
+      <c r="O89" s="49"/>
+      <c r="P89" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q89" s="51">
+        <f>Q86/(Q87+Q88)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="20">
@@ -6067,12 +6400,18 @@
       <c r="I90" s="1">
         <v>0</v>
       </c>
-      <c r="P90" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q90" s="48">
-        <f>I25</f>
-        <v>-333254000</v>
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="49"/>
+      <c r="O90" s="49"/>
+      <c r="P90" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q90" s="50">
+        <f>I27</f>
+        <v>12144000</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="20">
@@ -6103,12 +6442,18 @@
       <c r="I91" s="1">
         <v>-1444796600</v>
       </c>
-      <c r="P91" s="49" t="s">
-        <v>130</v>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="49"/>
+      <c r="O91" s="49"/>
+      <c r="P91" s="42" t="s">
+        <v>19</v>
       </c>
       <c r="Q91" s="50">
-        <f>Q89/Q90</f>
-        <v>-3.6440672880145478E-2</v>
+        <f>I25</f>
+        <v>-333254000</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="20">
@@ -6139,15 +6484,21 @@
       <c r="I92" s="1">
         <v>1425000000</v>
       </c>
-      <c r="P92" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q92" s="50">
-        <f>Q88*(1-Q91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" ht="19">
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="49"/>
+      <c r="P92" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q92" s="51">
+        <f>Q90/Q91</f>
+        <v>-3.6440672880145478E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="19" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -6175,10 +6526,19 @@
       <c r="I93" s="1">
         <v>-3098000</v>
       </c>
-      <c r="P93" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q93" s="71"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="49"/>
+      <c r="P93" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q93" s="51">
+        <f>Q89*(1-Q92)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:17" ht="19" customHeight="1">
       <c r="A94" s="6" t="s">
@@ -6208,13 +6568,16 @@
       <c r="I94" s="10">
         <v>-33308000</v>
       </c>
-      <c r="P94" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q94" s="51">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="49"/>
+      <c r="P94" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q94" s="78"/>
     </row>
     <row r="95" spans="1:17" ht="20">
       <c r="A95" s="5" t="s">
@@ -6244,12 +6607,18 @@
       <c r="I95" s="1">
         <v>-4510000</v>
       </c>
-      <c r="P95" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q95" s="52" cm="1">
-        <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.1373</v>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="49"/>
+      <c r="N95" s="49"/>
+      <c r="O95" s="49"/>
+      <c r="P95" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q95" s="48">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.6289999999999998E-2</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20">
@@ -6280,11 +6649,18 @@
       <c r="I96" s="1">
         <v>34710000</v>
       </c>
-      <c r="P96" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q96" s="51">
-        <v>8.4000000000000005E-2</v>
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="49"/>
+      <c r="M96" s="49"/>
+      <c r="N96" s="49"/>
+      <c r="O96" s="49"/>
+      <c r="P96" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q96" s="52" cm="1">
+        <f t="array" ref="Q96">_FV(A1,"Beta")</f>
+        <v>1.1566000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="20">
@@ -6315,15 +6691,20 @@
       <c r="I97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P97" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q97" s="50">
-        <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>9.0162024000000007E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" ht="19">
+      <c r="J97" s="49"/>
+      <c r="K97" s="49"/>
+      <c r="L97" s="49"/>
+      <c r="M97" s="49"/>
+      <c r="N97" s="49"/>
+      <c r="O97" s="49"/>
+      <c r="P97" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q97" s="48">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" ht="19" customHeight="1">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -6351,10 +6732,19 @@
       <c r="I98" s="1">
         <v>0</v>
       </c>
-      <c r="P98" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q98" s="71"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="49"/>
+      <c r="O98" s="49"/>
+      <c r="P98" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q98" s="51">
+        <f>(Q95)+((Q96)*(Q97-Q95))</f>
+        <v>8.9905386000000004E-2</v>
+      </c>
     </row>
     <row r="99" spans="1:21" ht="19" customHeight="1">
       <c r="A99" s="5" t="s">
@@ -6384,13 +6774,16 @@
       <c r="I99" s="1">
         <v>0</v>
       </c>
-      <c r="P99" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q99" s="48">
-        <f>Q86+Q87</f>
-        <v>1216579000</v>
-      </c>
+      <c r="J99" s="49"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="49"/>
+      <c r="O99" s="49"/>
+      <c r="P99" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q99" s="78"/>
     </row>
     <row r="100" spans="1:21" ht="20">
       <c r="A100" s="6" t="s">
@@ -6420,12 +6813,20 @@
       <c r="I100" s="10">
         <v>30200000</v>
       </c>
-      <c r="P100" s="49" t="s">
-        <v>139</v>
+      <c r="J100" s="49"/>
+      <c r="K100" s="49"/>
+      <c r="L100" s="49"/>
+      <c r="M100" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="N100" s="49"/>
+      <c r="O100" s="49"/>
+      <c r="P100" s="42" t="s">
+        <v>138</v>
       </c>
       <c r="Q100" s="50">
-        <f>Q99/Q103</f>
-        <v>4.2469554727692531E-2</v>
+        <f>Q87+Q88</f>
+        <v>1216579000</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20">
@@ -6456,12 +6857,18 @@
       <c r="I101" s="1">
         <v>-2003000</v>
       </c>
-      <c r="P101" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q101" s="53" cm="1">
-        <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>27429330000</v>
+      <c r="J101" s="49"/>
+      <c r="K101" s="49"/>
+      <c r="L101" s="49"/>
+      <c r="M101" s="49"/>
+      <c r="N101" s="49"/>
+      <c r="O101" s="49"/>
+      <c r="P101" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q101" s="51">
+        <f>Q100/Q104</f>
+        <v>4.4551409656065938E-2</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20">
@@ -6492,12 +6899,18 @@
       <c r="I102" s="10">
         <v>-18081000</v>
       </c>
-      <c r="P102" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q102" s="50">
-        <f>Q101/Q103</f>
-        <v>0.95753044527230746</v>
+      <c r="J102" s="49"/>
+      <c r="K102" s="49"/>
+      <c r="L102" s="49"/>
+      <c r="M102" s="49"/>
+      <c r="N102" s="49"/>
+      <c r="O102" s="49"/>
+      <c r="P102" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q102" s="53" cm="1">
+        <f t="array" ref="Q102">_FV(A1,"Market cap",TRUE)</f>
+        <v>26090727534</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20">
@@ -6528,15 +6941,21 @@
       <c r="I103" s="1">
         <v>474000000</v>
       </c>
-      <c r="P103" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q103" s="54">
-        <f>Q99+Q101</f>
-        <v>28645909000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" ht="20" thickBot="1">
+      <c r="J103" s="49"/>
+      <c r="K103" s="49"/>
+      <c r="L103" s="49"/>
+      <c r="M103" s="49"/>
+      <c r="N103" s="49"/>
+      <c r="O103" s="49"/>
+      <c r="P103" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q103" s="51">
+        <f>Q102/Q104</f>
+        <v>0.95544859034393403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="20" customHeight="1" thickBot="1">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -6564,12 +6983,23 @@
       <c r="I104" s="11">
         <v>456339000</v>
       </c>
-      <c r="P104" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q104" s="71"/>
-    </row>
-    <row r="105" spans="1:21" ht="21" thickTop="1">
+      <c r="J104" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
+      <c r="M104" s="77"/>
+      <c r="N104" s="77"/>
+      <c r="O104" s="49"/>
+      <c r="P104" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q104" s="54">
+        <f>Q100+Q102</f>
+        <v>27307306534</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" ht="21" customHeight="1" thickTop="1">
       <c r="A105" s="14" t="s">
         <v>159</v>
       </c>
@@ -6605,102 +7035,105 @@
         <f>(I22*(1-0.2))+I77+I88+I81</f>
         <v>-243817000</v>
       </c>
-      <c r="J105" s="28">
-        <f>I105*(1+$Q$106)</f>
-        <v>-297947599.00797939</v>
-      </c>
-      <c r="K105" s="28">
-        <f t="shared" ref="K105:N105" si="24">J105*(1+$Q$106)</f>
-        <v>-364095906.99015939</v>
-      </c>
-      <c r="L105" s="28">
-        <f t="shared" si="24"/>
-        <v>-444930014.29904634</v>
-      </c>
-      <c r="M105" s="28">
-        <f t="shared" si="24"/>
-        <v>-543710362.6366775</v>
-      </c>
-      <c r="N105" s="28">
-        <f t="shared" si="24"/>
-        <v>-664421254.88934672</v>
-      </c>
-      <c r="O105" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="P105" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q105" s="56">
-        <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>8.6332882987372475E-2</v>
-      </c>
+      <c r="J105" s="55">
+        <f>I105*(1+$Q$107)</f>
+        <v>-307428210.25523329</v>
+      </c>
+      <c r="K105" s="55">
+        <f>J105*(1+$Q$107)</f>
+        <v>-387635416.97558385</v>
+      </c>
+      <c r="L105" s="55">
+        <f>K105*(1+$Q$107)</f>
+        <v>-488768471.7322616</v>
+      </c>
+      <c r="M105" s="55">
+        <f>L105*(1+$Q$107)</f>
+        <v>-616286872.91630518</v>
+      </c>
+      <c r="N105" s="55">
+        <f>M105*(1+$Q$107)</f>
+        <v>-777074487.60527003</v>
+      </c>
+      <c r="O105" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="P105" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q105" s="78"/>
       <c r="R105" s="15"/>
       <c r="S105" s="15"/>
       <c r="T105" s="15"/>
       <c r="U105" s="15"/>
     </row>
-    <row r="106" spans="1:21" ht="19">
+    <row r="106" spans="1:21" ht="20">
       <c r="A106" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:I106" si="25">(C107/B107)-1</f>
+        <f t="shared" ref="C106:H106" si="24">(C107/B107)-1</f>
         <v>-0.16167323789242871</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.18246522974774271</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>3.8731495661051607E-2</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>-0.32215328541884225</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.64469550507491546</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>-0.97994343018770891</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="25"/>
-        <v>17.510989010989011</v>
-      </c>
-      <c r="J106" s="31">
-        <v>147800000</v>
-      </c>
-      <c r="K106" s="31">
-        <v>210800000</v>
-      </c>
-      <c r="L106" s="31">
-        <v>327100000</v>
-      </c>
-      <c r="M106" s="31">
-        <v>416000000</v>
-      </c>
-      <c r="N106" s="31">
-        <v>621500000</v>
-      </c>
-      <c r="O106" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="P106" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q106" s="58">
-        <f>(SUM(J4:N4)/5)</f>
-        <v>0.22201322716619179</v>
+        <f>(I105/H105)-1</f>
+        <v>0.25626284256280352</v>
+      </c>
+      <c r="J106" s="57">
+        <f>(J107/I105*-1)-1</f>
+        <v>-0.10998822887657544</v>
+      </c>
+      <c r="K106" s="57">
+        <f>(K107/J107)-1</f>
+        <v>0.30414746543778803</v>
+      </c>
+      <c r="L106" s="57">
+        <f>(L107/K107)-1</f>
+        <v>0.53356890459363959</v>
+      </c>
+      <c r="M106" s="57">
+        <f>(M107/L107)-1</f>
+        <v>0.44700460829493083</v>
+      </c>
+      <c r="N106" s="57">
+        <f>(N107/M107)-1</f>
+        <v>0.19426751592356695</v>
+      </c>
+      <c r="O106" s="58">
+        <f>SUM(J106:N106)/5</f>
+        <v>0.27380005307466998</v>
+      </c>
+      <c r="P106" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q106" s="59">
+        <f>(Q101*Q93)+(Q103*Q98)</f>
+        <v>8.5899974318027261E-2</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="19">
-      <c r="A107" s="44" t="s">
+      <c r="A107" s="39" t="s">
         <v>161</v>
       </c>
       <c r="B107" s="1">
@@ -6727,151 +7160,239 @@
       <c r="I107" s="1">
         <v>-20214000</v>
       </c>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="29"/>
-      <c r="N107" s="32">
-        <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>10386557242.566872</v>
-      </c>
-      <c r="O107" s="30" t="s">
+      <c r="J107" s="60">
+        <v>217000000</v>
+      </c>
+      <c r="K107" s="60">
+        <v>283000000</v>
+      </c>
+      <c r="L107" s="60">
+        <v>434000000</v>
+      </c>
+      <c r="M107" s="60">
+        <v>628000000</v>
+      </c>
+      <c r="N107" s="60">
+        <v>750000000</v>
+      </c>
+      <c r="O107" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="P107" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q107" s="45">
+        <f>(SUM(J4:N4)/5)</f>
+        <v>0.26089735438969941</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" ht="19">
+      <c r="J108" s="56"/>
+      <c r="K108" s="56"/>
+      <c r="L108" s="56"/>
+      <c r="M108" s="56"/>
+      <c r="N108" s="62">
+        <f>N107*(1+Q108)/(Q109-Q108)</f>
+        <v>12623158032.637115</v>
+      </c>
+      <c r="O108" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="P107" s="59" t="s">
+      <c r="P108" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="Q107" s="60">
+      <c r="Q108" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="19">
-      <c r="J108" s="32">
-        <f t="shared" ref="J108:M108" si="26">J107+J106</f>
-        <v>147800000</v>
-      </c>
-      <c r="K108" s="32">
-        <f t="shared" si="26"/>
-        <v>210800000</v>
-      </c>
-      <c r="L108" s="32">
-        <f t="shared" si="26"/>
-        <v>327100000</v>
-      </c>
-      <c r="M108" s="32">
-        <f t="shared" si="26"/>
-        <v>416000000</v>
-      </c>
-      <c r="N108" s="32">
-        <f>N107+N106</f>
-        <v>11008057242.566872</v>
-      </c>
-      <c r="O108" s="30" t="s">
+    <row r="109" spans="1:21" ht="19">
+      <c r="J109" s="62">
+        <f t="shared" ref="J109:M109" si="25">J108+J107</f>
+        <v>217000000</v>
+      </c>
+      <c r="K109" s="62">
+        <f t="shared" si="25"/>
+        <v>283000000</v>
+      </c>
+      <c r="L109" s="62">
+        <f t="shared" si="25"/>
+        <v>434000000</v>
+      </c>
+      <c r="M109" s="62">
+        <f t="shared" si="25"/>
+        <v>628000000</v>
+      </c>
+      <c r="N109" s="62">
+        <f>N108+N107</f>
+        <v>13373158032.637115</v>
+      </c>
+      <c r="O109" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="P108" s="61" t="s">
+      <c r="P109" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="Q108" s="58">
-        <f>Q105</f>
-        <v>8.6332882987372475E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="19">
-      <c r="J109" s="68" t="s">
+      <c r="Q109" s="45">
+        <f>Q106</f>
+        <v>8.5899974318027261E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" ht="19">
+      <c r="J110" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="K109" s="68"/>
-    </row>
-    <row r="110" spans="1:21" ht="20">
-      <c r="J110" s="62" t="s">
+      <c r="K110" s="76"/>
+      <c r="L110" s="49"/>
+      <c r="M110" s="49"/>
+      <c r="N110" s="49"/>
+      <c r="O110" s="49"/>
+      <c r="P110" s="49"/>
+      <c r="Q110" s="49"/>
+    </row>
+    <row r="111" spans="1:21" ht="20">
+      <c r="J111" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="K110" s="53">
-        <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>8144588561.9376974</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" ht="20">
-      <c r="J111" s="62" t="s">
+      <c r="K111" s="53">
+        <f>NPV(Q109,J109,K109,L109,M109,N109)</f>
+        <v>10087381707.447464</v>
+      </c>
+      <c r="L111" s="49"/>
+      <c r="M111" s="49"/>
+      <c r="N111" s="49"/>
+      <c r="O111" s="49"/>
+      <c r="P111" s="49"/>
+      <c r="Q111" s="49"/>
+    </row>
+    <row r="112" spans="1:21" ht="20">
+      <c r="J112" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="K111" s="53">
+      <c r="K112" s="53">
         <f>I40</f>
         <v>1836630000</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" ht="20">
-      <c r="J112" s="62" t="s">
+      <c r="L112" s="49"/>
+      <c r="M112" s="49"/>
+      <c r="N112" s="49"/>
+      <c r="O112" s="49"/>
+      <c r="P112" s="49"/>
+      <c r="Q112" s="49"/>
+    </row>
+    <row r="113" spans="10:17" ht="20">
+      <c r="J113" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="K112" s="53">
-        <f>Q99</f>
+      <c r="K113" s="53">
+        <f>Q100</f>
         <v>1216579000</v>
       </c>
-    </row>
-    <row r="113" spans="10:11" ht="20">
-      <c r="J113" s="62" t="s">
+      <c r="L113" s="49"/>
+      <c r="M113" s="49"/>
+      <c r="N113" s="49"/>
+      <c r="O113" s="49"/>
+      <c r="P113" s="49"/>
+      <c r="Q113" s="49"/>
+    </row>
+    <row r="114" spans="10:17" ht="20">
+      <c r="J114" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="K113" s="53">
-        <f>K110+K111-K112</f>
-        <v>8764639561.9376984</v>
-      </c>
-    </row>
-    <row r="114" spans="10:11" ht="20">
-      <c r="J114" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="K114" s="62">
-        <f>I34*(1+(0.05*5))</f>
-        <v>85785333.75</v>
-      </c>
-    </row>
-    <row r="115" spans="10:11" ht="20">
-      <c r="J115" s="63" t="s">
+      <c r="K114" s="53">
+        <f>K111+K112-K113</f>
+        <v>10707432707.447464</v>
+      </c>
+      <c r="L114" s="49"/>
+      <c r="M114" s="49"/>
+      <c r="N114" s="49"/>
+      <c r="O114" s="49"/>
+      <c r="P114" s="49"/>
+      <c r="Q114" s="49"/>
+    </row>
+    <row r="115" spans="10:17" ht="20">
+      <c r="J115" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="K115" s="66">
+        <f>I34*(1+(0.02*5))</f>
+        <v>75491093.700000003</v>
+      </c>
+      <c r="L115" s="49"/>
+      <c r="M115" s="49"/>
+      <c r="N115" s="49"/>
+      <c r="O115" s="49"/>
+      <c r="P115" s="49"/>
+      <c r="Q115" s="49"/>
+    </row>
+    <row r="116" spans="10:17" ht="20">
+      <c r="J116" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="K115" s="64">
-        <f>K113/K114</f>
-        <v>102.16944061184233</v>
-      </c>
-    </row>
-    <row r="116" spans="10:11" ht="20">
-      <c r="J116" s="62" t="s">
+      <c r="K116" s="68">
+        <f>K114/K115</f>
+        <v>141.83703245840593</v>
+      </c>
+      <c r="L116" s="49"/>
+      <c r="M116" s="49"/>
+      <c r="N116" s="49"/>
+      <c r="O116" s="49"/>
+      <c r="P116" s="49"/>
+      <c r="Q116" s="49"/>
+    </row>
+    <row r="117" spans="10:17" ht="20">
+      <c r="J117" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="K116" s="65" cm="1">
-        <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>388.62</v>
-      </c>
-    </row>
-    <row r="117" spans="10:11" ht="20">
-      <c r="J117" s="63" t="s">
+      <c r="K117" s="69" cm="1">
+        <f t="array" ref="K117">_FV(A1,"Price")</f>
+        <v>365.7</v>
+      </c>
+      <c r="L117" s="49"/>
+      <c r="M117" s="49"/>
+      <c r="N117" s="49"/>
+      <c r="O117" s="49"/>
+      <c r="P117" s="49"/>
+      <c r="Q117" s="49"/>
+    </row>
+    <row r="118" spans="10:17" ht="20">
+      <c r="J118" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="K117" s="66">
-        <f>K115/K116-1</f>
-        <v>-0.73709680250156362</v>
-      </c>
-    </row>
-    <row r="118" spans="10:11" ht="20">
-      <c r="J118" s="63" t="s">
+      <c r="K118" s="70">
+        <f>K116/K117-1</f>
+        <v>-0.61214921395021626</v>
+      </c>
+      <c r="L118" s="49"/>
+      <c r="M118" s="49"/>
+      <c r="N118" s="49"/>
+      <c r="O118" s="49"/>
+      <c r="P118" s="49"/>
+      <c r="Q118" s="49"/>
+    </row>
+    <row r="119" spans="10:17" ht="20">
+      <c r="J119" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="K118" s="67" t="str">
-        <f>IF(K115&gt;K116,"BUY","SELL")</f>
+      <c r="K119" s="71" t="str">
+        <f>IF(K116&gt;K117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="L119" s="49"/>
+      <c r="M119" s="49"/>
+      <c r="N119" s="49"/>
+      <c r="O119" s="49"/>
+      <c r="P119" s="49"/>
+      <c r="Q119" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="P83:Q83"/>
+  <mergeCells count="7">
     <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J104:N104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="P94:Q94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/MDB" display="ROIC.AI | MDB" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6891,7 +7412,7 @@
     <hyperlink ref="H74" r:id="rId15" tooltip="https://www.sec.gov/Archives/edgar/data/1441816/000144181622000059/0001441816-22-000059-index.htm" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="I36" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1441816/000144181622000059/0001441816-22-000059-index.htm" xr:uid="{5A771ABC-18CB-284F-B64C-A5C8A01F946C}"/>
     <hyperlink ref="J1" r:id="rId17" display="https://finbox.com/NASDAQGM:MDB/explorer/revenue_proj" xr:uid="{1ADFDDA7-D30E-E746-A67F-D3A291AA635E}"/>
-    <hyperlink ref="O106" r:id="rId18" xr:uid="{8F97825E-3939-5041-84EE-CA3B2EDB413D}"/>
+    <hyperlink ref="O107" r:id="rId18" xr:uid="{8F97825E-3939-5041-84EE-CA3B2EDB413D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId19"/>

--- a/Technology/Software/MongoDB.xlsx
+++ b/Technology/Software/MongoDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608B5FE-82EA-9943-8D28-F384F08A1985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D6E201-39FC-8D48-BE72-258DCF30027A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1075,19 +1075,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2388,18 +2388,18 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Technology - Software"/>
-      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodity Stocks"/>
-      <sheetName val="Full Portfolio"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2413,15 +2413,15 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6289999999999998E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
@@ -2582,11 +2582,9 @@
     <v>Powered by Refinitiv</v>
     <v>439</v>
     <v>135.15</v>
-    <v>1.1566000000000001</v>
-    <v>-2.46</v>
-    <v>-6.6820000000000004E-3</v>
-    <v>-0.3</v>
-    <v>-8.2030000000000004E-4</v>
+    <v>1.1580999999999999</v>
+    <v>-10.02</v>
+    <v>-2.9555999999999999E-2</v>
     <v>USD</v>
     <v>MongoDB, Inc. is a developer data platform company. Its developer data platform is an integrated set of databases and related services that allow development teams to address the growing variety of modern application requirements. Its core offerings are MongoDB Atlas and MongoDB Enterprise Advanced. MongoDB Atlas is its managed multi-cloud database-as-a-service offering that includes an integrated set of database and related services. MongoDB Atlas provides customers with a managed offering that includes automated provisioning and healing, comprehensive system monitoring, managed backup and restore, default security and other features. MongoDB Enterprise Advanced is its self-managed commercial offering for enterprise customers that can run in the cloud, on-premises or in a hybrid environment. It provides professional services to its customers, including consulting and training. It has over 40,800 customers spanning a range of industries in more than 100 countries around the world.</v>
     <v>4619</v>
@@ -2594,25 +2592,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1633 Broadway Fl 38, NEW YORK, NY, 10019-6763 US</v>
-    <v>373</v>
+    <v>347.47</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45216.999603599215</v>
+    <v>45232.999755392972</v>
     <v>4</v>
-    <v>361.35</v>
-    <v>26090727534</v>
+    <v>326.20999999999998</v>
+    <v>23472379980</v>
     <v>MONGODB, INC.</v>
     <v>MONGODB, INC.</v>
-    <v>362.3</v>
-    <v>368.16</v>
-    <v>365.7</v>
-    <v>365.4</v>
+    <v>347.47</v>
+    <v>339.02</v>
+    <v>329</v>
     <v>71344620</v>
     <v>MDB</v>
     <v>MONGODB, INC. (XNAS:MDB)</v>
-    <v>965535</v>
-    <v>1041735</v>
+    <v>380</v>
+    <v>1033018</v>
     <v>2007</v>
   </rv>
   <rv s="4">
@@ -2656,8 +2653,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2678,7 +2673,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2695,7 +2689,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2706,16 +2700,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2786,19 +2777,13 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
-      <v>1</v>
-      <v>1</v>
-      <v>6</v>
     </spb>
     <spb s="5">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -2851,9 +2836,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2861,9 +2843,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -3235,7 +3214,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="G95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M97" sqref="M97"/>
+      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3945,15 +3924,15 @@
       </c>
       <c r="P16" s="28">
         <f>Q102/I3</f>
-        <v>20.319881257009346</v>
+        <v>18.280669766355139</v>
       </c>
       <c r="Q16" s="28">
         <f>Q102/I28</f>
-        <v>-75.53815463320575</v>
+        <v>-67.957486667554534</v>
       </c>
       <c r="R16" s="29">
         <f>Q102/I107</f>
-        <v>-1290.7256126447016</v>
+        <v>-1161.1942208370435</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19">
@@ -4075,15 +4054,15 @@
       </c>
       <c r="P19" s="31">
         <f>Q102/J3</f>
-        <v>16.245783022415939</v>
+        <v>14.615429626400996</v>
       </c>
       <c r="Q19" s="28">
         <f>Q102/J28</f>
-        <v>134.83580120930233</v>
+        <v>121.30428930232559</v>
       </c>
       <c r="R19" s="29">
         <f>Q102/J105</f>
-        <v>-84.867707853937461</v>
+        <v>-76.350768072041092</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1">
@@ -4237,7 +4216,7 @@
       </c>
       <c r="R22" s="41">
         <f>J107/Q102</f>
-        <v>8.3171310465458489E-3</v>
+        <v>9.2449082787897166E-3</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19">
@@ -6152,10 +6131,10 @@
       <c r="M84" s="49"/>
       <c r="N84" s="49"/>
       <c r="O84" s="49"/>
-      <c r="P84" s="79" t="s">
+      <c r="P84" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="Q84" s="80"/>
+      <c r="Q84" s="77"/>
     </row>
     <row r="85" spans="1:17" ht="19" customHeight="1">
       <c r="A85" s="5" t="s">
@@ -6618,7 +6597,7 @@
       </c>
       <c r="Q95" s="48">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6289999999999998E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20">
@@ -6660,7 +6639,7 @@
       </c>
       <c r="Q96" s="52" cm="1">
         <f t="array" ref="Q96">_FV(A1,"Beta")</f>
-        <v>1.1566000000000001</v>
+        <v>1.1580999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="20">
@@ -6743,7 +6722,7 @@
       </c>
       <c r="Q98" s="51">
         <f>(Q95)+((Q96)*(Q97-Q95))</f>
-        <v>8.9905386000000004E-2</v>
+        <v>8.9573025000000001E-2</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="19" customHeight="1">
@@ -6868,7 +6847,7 @@
       </c>
       <c r="Q101" s="51">
         <f>Q100/Q104</f>
-        <v>4.4551409656065938E-2</v>
+        <v>4.9276237243762476E-2</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20">
@@ -6910,7 +6889,7 @@
       </c>
       <c r="Q102" s="53" cm="1">
         <f t="array" ref="Q102">_FV(A1,"Market cap",TRUE)</f>
-        <v>26090727534</v>
+        <v>23472379980</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20">
@@ -6952,7 +6931,7 @@
       </c>
       <c r="Q103" s="51">
         <f>Q102/Q104</f>
-        <v>0.95544859034393403</v>
+        <v>0.95072376275623749</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="20" customHeight="1" thickBot="1">
@@ -6983,20 +6962,20 @@
       <c r="I104" s="11">
         <v>456339000</v>
       </c>
-      <c r="J104" s="77" t="s">
+      <c r="J104" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="K104" s="77"/>
-      <c r="L104" s="77"/>
-      <c r="M104" s="77"/>
-      <c r="N104" s="77"/>
+      <c r="K104" s="80"/>
+      <c r="L104" s="80"/>
+      <c r="M104" s="80"/>
+      <c r="N104" s="80"/>
       <c r="O104" s="49"/>
       <c r="P104" s="43" t="s">
         <v>142</v>
       </c>
       <c r="Q104" s="54">
         <f>Q100+Q102</f>
-        <v>27307306534</v>
+        <v>24688958980</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="21" customHeight="1" thickTop="1">
@@ -7129,7 +7108,7 @@
       </c>
       <c r="Q106" s="59">
         <f>(Q101*Q93)+(Q103*Q98)</f>
-        <v>8.5899974318027261E-2</v>
+        <v>8.5159203369458536E-2</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="19">
@@ -7193,7 +7172,7 @@
       <c r="M108" s="56"/>
       <c r="N108" s="62">
         <f>N107*(1+Q108)/(Q109-Q108)</f>
-        <v>12623158032.637115</v>
+        <v>12778593414.524448</v>
       </c>
       <c r="O108" s="63" t="s">
         <v>145</v>
@@ -7224,7 +7203,7 @@
       </c>
       <c r="N109" s="62">
         <f>N108+N107</f>
-        <v>13373158032.637115</v>
+        <v>13528593414.524448</v>
       </c>
       <c r="O109" s="63" t="s">
         <v>142</v>
@@ -7234,14 +7213,14 @@
       </c>
       <c r="Q109" s="45">
         <f>Q106</f>
-        <v>8.5899974318027261E-2</v>
+        <v>8.5159203369458536E-2</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="19">
-      <c r="J110" s="76" t="s">
+      <c r="J110" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="K110" s="76"/>
+      <c r="K110" s="79"/>
       <c r="L110" s="49"/>
       <c r="M110" s="49"/>
       <c r="N110" s="49"/>
@@ -7255,7 +7234,7 @@
       </c>
       <c r="K111" s="53">
         <f>NPV(Q109,J109,K109,L109,M109,N109)</f>
-        <v>10087381707.447464</v>
+        <v>10223342585.1164</v>
       </c>
       <c r="L111" s="49"/>
       <c r="M111" s="49"/>
@@ -7300,7 +7279,7 @@
       </c>
       <c r="K114" s="53">
         <f>K111+K112-K113</f>
-        <v>10707432707.447464</v>
+        <v>10843393585.1164</v>
       </c>
       <c r="L114" s="49"/>
       <c r="M114" s="49"/>
@@ -7330,7 +7309,7 @@
       </c>
       <c r="K116" s="68">
         <f>K114/K115</f>
-        <v>141.83703245840593</v>
+        <v>143.63805124095586</v>
       </c>
       <c r="L116" s="49"/>
       <c r="M116" s="49"/>
@@ -7345,7 +7324,7 @@
       </c>
       <c r="K117" s="69" cm="1">
         <f t="array" ref="K117">_FV(A1,"Price")</f>
-        <v>365.7</v>
+        <v>329</v>
       </c>
       <c r="L117" s="49"/>
       <c r="M117" s="49"/>
@@ -7360,7 +7339,7 @@
       </c>
       <c r="K118" s="70">
         <f>K116/K117-1</f>
-        <v>-0.61214921395021626</v>
+        <v>-0.56341017859891829</v>
       </c>
       <c r="L118" s="49"/>
       <c r="M118" s="49"/>

--- a/Technology/Software/MongoDB.xlsx
+++ b/Technology/Software/MongoDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D6E201-39FC-8D48-BE72-258DCF30027A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04A7885-FBB8-4D44-8A20-86F9587E3973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -559,9 +559,6 @@
   </si>
   <si>
     <t>Levered FCF</t>
-  </si>
-  <si>
-    <t>Unlevered FCF Proj</t>
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
@@ -896,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1014,9 +1011,6 @@
     <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1075,6 +1069,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1087,7 +1087,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2416,7 +2416,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2582,9 +2582,11 @@
     <v>Powered by Refinitiv</v>
     <v>439</v>
     <v>135.15</v>
-    <v>1.1580999999999999</v>
-    <v>-10.02</v>
-    <v>-2.9555999999999999E-2</v>
+    <v>1.1572</v>
+    <v>-4.7300000000000004</v>
+    <v>-1.2782E-2</v>
+    <v>-1.1200000000000001</v>
+    <v>-3.0659999999999997E-3</v>
     <v>USD</v>
     <v>MongoDB, Inc. is a developer data platform company. Its developer data platform is an integrated set of databases and related services that allow development teams to address the growing variety of modern application requirements. Its core offerings are MongoDB Atlas and MongoDB Enterprise Advanced. MongoDB Atlas is its managed multi-cloud database-as-a-service offering that includes an integrated set of database and related services. MongoDB Atlas provides customers with a managed offering that includes automated provisioning and healing, comprehensive system monitoring, managed backup and restore, default security and other features. MongoDB Enterprise Advanced is its self-managed commercial offering for enterprise customers that can run in the cloud, on-premises or in a hybrid environment. It provides professional services to its customers, including consulting and training. It has over 40,800 customers spanning a range of industries in more than 100 countries around the world.</v>
     <v>4619</v>
@@ -2592,24 +2594,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1633 Broadway Fl 38, NEW YORK, NY, 10019-6763 US</v>
-    <v>347.47</v>
+    <v>379.71</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45232.999755392972</v>
+    <v>45239.962336168748</v>
     <v>4</v>
-    <v>326.20999999999998</v>
-    <v>23472379980</v>
+    <v>364.1</v>
+    <v>26062903132</v>
     <v>MONGODB, INC.</v>
     <v>MONGODB, INC.</v>
-    <v>347.47</v>
-    <v>339.02</v>
-    <v>329</v>
+    <v>372.5</v>
+    <v>370.04</v>
+    <v>365.31</v>
+    <v>364.19</v>
     <v>71344620</v>
     <v>MDB</v>
     <v>MONGODB, INC. (XNAS:MDB)</v>
-    <v>380</v>
-    <v>1033018</v>
+    <v>986756</v>
+    <v>1184973</v>
     <v>2007</v>
   </rv>
   <rv s="4">
@@ -2653,6 +2656,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2673,6 +2678,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2689,7 +2695,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2700,13 +2706,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2777,13 +2786,19 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
+      <v>1</v>
+      <v>1</v>
+      <v>6</v>
     </spb>
     <spb s="5">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -2836,6 +2851,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2843,6 +2861,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -3211,10 +3232,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
+      <selection pane="bottomRight" activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3372,31 +3393,31 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="75">
+      <c r="C4" s="74">
         <f>(C3/B3)-1</f>
         <v>0.55287953302385429</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="74">
         <f>(D3/C3)-1</f>
         <v>0.52448746028927173</v>
       </c>
-      <c r="E4" s="75">
+      <c r="E4" s="74">
         <f>(E3/D3)-1</f>
         <v>0.72804638911719599</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="74">
         <f t="shared" ref="F4:N4" si="0">(F3/E3)-1</f>
         <v>0.57938101087575267</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="74">
         <f t="shared" si="0"/>
         <v>0.39993360523570143</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="74">
         <f t="shared" si="0"/>
         <v>0.48003319895660423</v>
       </c>
-      <c r="I4" s="75">
+      <c r="I4" s="74">
         <f t="shared" si="0"/>
         <v>0.46947407934702245</v>
       </c>
@@ -3509,16 +3530,16 @@
         <f>J3*J7</f>
         <v>1206748400</v>
       </c>
-      <c r="O6" s="72" t="s">
+      <c r="O6" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="73" t="s">
+      <c r="P6" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="Q6" s="73" t="s">
+      <c r="Q6" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="R6" s="73" t="s">
+      <c r="R6" s="72" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3924,15 +3945,15 @@
       </c>
       <c r="P16" s="28">
         <f>Q102/I3</f>
-        <v>18.280669766355139</v>
+        <v>20.29821116199377</v>
       </c>
       <c r="Q16" s="28">
         <f>Q102/I28</f>
-        <v>-67.957486667554534</v>
+        <v>-75.457597125634777</v>
       </c>
       <c r="R16" s="29">
         <f>Q102/I107</f>
-        <v>-1161.1942208370435</v>
+        <v>-1289.3491210052439</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19">
@@ -4054,15 +4075,15 @@
       </c>
       <c r="P19" s="31">
         <f>Q102/J3</f>
-        <v>14.615429626400996</v>
+        <v>16.228457740971358</v>
       </c>
       <c r="Q19" s="28">
         <f>Q102/J28</f>
-        <v>121.30428930232559</v>
+        <v>134.69200585012919</v>
       </c>
       <c r="R19" s="29">
-        <f>Q102/J105</f>
-        <v>-76.350768072041092</v>
+        <f>Q102/J107</f>
+        <v>120.10554438709677</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1">
@@ -4169,13 +4190,13 @@
         <v>0.15904086126743333</v>
       </c>
       <c r="P21" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q21" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R21" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="19">
@@ -4216,7 +4237,7 @@
       </c>
       <c r="R22" s="41">
         <f>J107/Q102</f>
-        <v>9.2449082787897166E-3</v>
+        <v>8.3260103028801758E-3</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19">
@@ -6131,10 +6152,10 @@
       <c r="M84" s="49"/>
       <c r="N84" s="49"/>
       <c r="O84" s="49"/>
-      <c r="P84" s="76" t="s">
+      <c r="P84" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="Q84" s="77"/>
+      <c r="Q84" s="78"/>
     </row>
     <row r="85" spans="1:17" ht="19" customHeight="1">
       <c r="A85" s="5" t="s">
@@ -6170,10 +6191,10 @@
       <c r="M85" s="49"/>
       <c r="N85" s="49"/>
       <c r="O85" s="49"/>
-      <c r="P85" s="78" t="s">
+      <c r="P85" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="Q85" s="78"/>
+      <c r="Q85" s="79"/>
     </row>
     <row r="86" spans="1:17" ht="20">
       <c r="A86" s="5" t="s">
@@ -6553,10 +6574,10 @@
       <c r="M94" s="49"/>
       <c r="N94" s="49"/>
       <c r="O94" s="49"/>
-      <c r="P94" s="78" t="s">
+      <c r="P94" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="Q94" s="78"/>
+      <c r="Q94" s="79"/>
     </row>
     <row r="95" spans="1:17" ht="20">
       <c r="A95" s="5" t="s">
@@ -6597,7 +6618,7 @@
       </c>
       <c r="Q95" s="48">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20">
@@ -6639,7 +6660,7 @@
       </c>
       <c r="Q96" s="52" cm="1">
         <f t="array" ref="Q96">_FV(A1,"Beta")</f>
-        <v>1.1580999999999999</v>
+        <v>1.1572</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="20">
@@ -6722,7 +6743,7 @@
       </c>
       <c r="Q98" s="51">
         <f>(Q95)+((Q96)*(Q97-Q95))</f>
-        <v>8.9573025000000001E-2</v>
+        <v>9.0019188E-2</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="19" customHeight="1">
@@ -6759,10 +6780,10 @@
       <c r="M99" s="49"/>
       <c r="N99" s="49"/>
       <c r="O99" s="49"/>
-      <c r="P99" s="78" t="s">
+      <c r="P99" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="Q99" s="78"/>
+      <c r="Q99" s="79"/>
     </row>
     <row r="100" spans="1:21" ht="20">
       <c r="A100" s="6" t="s">
@@ -6796,7 +6817,7 @@
       <c r="K100" s="49"/>
       <c r="L100" s="49"/>
       <c r="M100" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N100" s="49"/>
       <c r="O100" s="49"/>
@@ -6847,7 +6868,7 @@
       </c>
       <c r="Q101" s="51">
         <f>Q100/Q104</f>
-        <v>4.9276237243762476E-2</v>
+        <v>4.4596851000074551E-2</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20">
@@ -6889,7 +6910,7 @@
       </c>
       <c r="Q102" s="53" cm="1">
         <f t="array" ref="Q102">_FV(A1,"Market cap",TRUE)</f>
-        <v>23472379980</v>
+        <v>26062903132</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20">
@@ -6931,7 +6952,7 @@
       </c>
       <c r="Q103" s="51">
         <f>Q102/Q104</f>
-        <v>0.95072376275623749</v>
+        <v>0.9554031489999254</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="20" customHeight="1" thickBot="1">
@@ -6962,20 +6983,20 @@
       <c r="I104" s="11">
         <v>456339000</v>
       </c>
-      <c r="J104" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="K104" s="80"/>
-      <c r="L104" s="80"/>
-      <c r="M104" s="80"/>
-      <c r="N104" s="80"/>
+      <c r="J104" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="K104" s="81"/>
+      <c r="L104" s="81"/>
+      <c r="M104" s="81"/>
+      <c r="N104" s="81"/>
       <c r="O104" s="49"/>
       <c r="P104" s="43" t="s">
         <v>142</v>
       </c>
       <c r="Q104" s="54">
         <f>Q100+Q102</f>
-        <v>24688958980</v>
+        <v>27279482132</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="21" customHeight="1" thickTop="1">
@@ -7014,33 +7035,33 @@
         <f>(I22*(1-0.2))+I77+I88+I81</f>
         <v>-243817000</v>
       </c>
-      <c r="J105" s="55">
-        <f>I105*(1+$Q$107)</f>
-        <v>-307428210.25523329</v>
-      </c>
-      <c r="K105" s="55">
-        <f>J105*(1+$Q$107)</f>
-        <v>-387635416.97558385</v>
-      </c>
-      <c r="L105" s="55">
-        <f>K105*(1+$Q$107)</f>
-        <v>-488768471.7322616</v>
-      </c>
-      <c r="M105" s="55">
-        <f>L105*(1+$Q$107)</f>
-        <v>-616286872.91630518</v>
-      </c>
-      <c r="N105" s="55">
-        <f>M105*(1+$Q$107)</f>
-        <v>-777074487.60527003</v>
-      </c>
-      <c r="O105" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="P105" s="78" t="s">
+      <c r="J105" s="76">
+        <f>J107/J3</f>
+        <v>0.13511830635118308</v>
+      </c>
+      <c r="K105" s="76">
+        <f>K107/K3</f>
+        <v>0.14520266803488968</v>
+      </c>
+      <c r="L105" s="76">
+        <f>L107/L3</f>
+        <v>0.17642276422764228</v>
+      </c>
+      <c r="M105" s="76">
+        <f>M107/M3</f>
+        <v>0.19936507936507936</v>
+      </c>
+      <c r="N105" s="76">
+        <f>N107/N3</f>
+        <v>0.18350868607780768</v>
+      </c>
+      <c r="O105" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="P105" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="Q105" s="78"/>
+      <c r="Q105" s="79"/>
       <c r="R105" s="15"/>
       <c r="S105" s="15"/>
       <c r="T105" s="15"/>
@@ -7079,36 +7100,36 @@
         <f>(I105/H105)-1</f>
         <v>0.25626284256280352</v>
       </c>
-      <c r="J106" s="57">
+      <c r="J106" s="56">
         <f>(J107/I105*-1)-1</f>
         <v>-0.10998822887657544</v>
       </c>
-      <c r="K106" s="57">
+      <c r="K106" s="56">
         <f>(K107/J107)-1</f>
         <v>0.30414746543778803</v>
       </c>
-      <c r="L106" s="57">
+      <c r="L106" s="56">
         <f>(L107/K107)-1</f>
         <v>0.53356890459363959</v>
       </c>
-      <c r="M106" s="57">
+      <c r="M106" s="56">
         <f>(M107/L107)-1</f>
         <v>0.44700460829493083</v>
       </c>
-      <c r="N106" s="57">
+      <c r="N106" s="56">
         <f>(N107/M107)-1</f>
         <v>0.19426751592356695</v>
       </c>
-      <c r="O106" s="58">
+      <c r="O106" s="57">
         <f>SUM(J106:N106)/5</f>
         <v>0.27380005307466998</v>
       </c>
       <c r="P106" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="Q106" s="59">
+      <c r="Q106" s="58">
         <f>(Q101*Q93)+(Q103*Q98)</f>
-        <v>8.5159203369458536E-2</v>
+        <v>8.6004615685616292E-2</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="19">
@@ -7139,25 +7160,25 @@
       <c r="I107" s="1">
         <v>-20214000</v>
       </c>
-      <c r="J107" s="60">
+      <c r="J107" s="59">
         <v>217000000</v>
       </c>
-      <c r="K107" s="60">
+      <c r="K107" s="59">
         <v>283000000</v>
       </c>
-      <c r="L107" s="60">
+      <c r="L107" s="59">
         <v>434000000</v>
       </c>
-      <c r="M107" s="60">
+      <c r="M107" s="59">
         <v>628000000</v>
       </c>
-      <c r="N107" s="60">
+      <c r="N107" s="59">
         <v>750000000</v>
       </c>
-      <c r="O107" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="P107" s="61" t="s">
+      <c r="O107" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="P107" s="60" t="s">
         <v>144</v>
       </c>
       <c r="Q107" s="45">
@@ -7166,18 +7187,18 @@
       </c>
     </row>
     <row r="108" spans="1:21" ht="19">
-      <c r="J108" s="56"/>
-      <c r="K108" s="56"/>
-      <c r="L108" s="56"/>
-      <c r="M108" s="56"/>
-      <c r="N108" s="62">
+      <c r="J108" s="75"/>
+      <c r="K108" s="75"/>
+      <c r="L108" s="75"/>
+      <c r="M108" s="75"/>
+      <c r="N108" s="61">
         <f>N107*(1+Q108)/(Q109-Q108)</f>
-        <v>12778593414.524448</v>
-      </c>
-      <c r="O108" s="63" t="s">
+        <v>12601505498.562731</v>
+      </c>
+      <c r="O108" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="P108" s="64" t="s">
+      <c r="P108" s="63" t="s">
         <v>146</v>
       </c>
       <c r="Q108" s="46">
@@ -7185,42 +7206,42 @@
       </c>
     </row>
     <row r="109" spans="1:21" ht="19">
-      <c r="J109" s="62">
+      <c r="J109" s="61">
         <f t="shared" ref="J109:M109" si="25">J108+J107</f>
         <v>217000000</v>
       </c>
-      <c r="K109" s="62">
+      <c r="K109" s="61">
         <f t="shared" si="25"/>
         <v>283000000</v>
       </c>
-      <c r="L109" s="62">
+      <c r="L109" s="61">
         <f t="shared" si="25"/>
         <v>434000000</v>
       </c>
-      <c r="M109" s="62">
+      <c r="M109" s="61">
         <f t="shared" si="25"/>
         <v>628000000</v>
       </c>
-      <c r="N109" s="62">
+      <c r="N109" s="61">
         <f>N108+N107</f>
-        <v>13528593414.524448</v>
-      </c>
-      <c r="O109" s="63" t="s">
+        <v>13351505498.562731</v>
+      </c>
+      <c r="O109" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="P109" s="65" t="s">
+      <c r="P109" s="64" t="s">
         <v>147</v>
       </c>
       <c r="Q109" s="45">
         <f>Q106</f>
-        <v>8.5159203369458536E-2</v>
+        <v>8.6004615685616292E-2</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="19">
-      <c r="J110" s="79" t="s">
+      <c r="J110" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="K110" s="79"/>
+      <c r="K110" s="80"/>
       <c r="L110" s="49"/>
       <c r="M110" s="49"/>
       <c r="N110" s="49"/>
@@ -7229,12 +7250,12 @@
       <c r="Q110" s="49"/>
     </row>
     <row r="111" spans="1:21" ht="20">
-      <c r="J111" s="66" t="s">
+      <c r="J111" s="65" t="s">
         <v>149</v>
       </c>
       <c r="K111" s="53">
         <f>NPV(Q109,J109,K109,L109,M109,N109)</f>
-        <v>10223342585.1164</v>
+        <v>10068444537.095491</v>
       </c>
       <c r="L111" s="49"/>
       <c r="M111" s="49"/>
@@ -7244,7 +7265,7 @@
       <c r="Q111" s="49"/>
     </row>
     <row r="112" spans="1:21" ht="20">
-      <c r="J112" s="66" t="s">
+      <c r="J112" s="65" t="s">
         <v>150</v>
       </c>
       <c r="K112" s="53">
@@ -7259,7 +7280,7 @@
       <c r="Q112" s="49"/>
     </row>
     <row r="113" spans="10:17" ht="20">
-      <c r="J113" s="66" t="s">
+      <c r="J113" s="65" t="s">
         <v>138</v>
       </c>
       <c r="K113" s="53">
@@ -7274,12 +7295,12 @@
       <c r="Q113" s="49"/>
     </row>
     <row r="114" spans="10:17" ht="20">
-      <c r="J114" s="66" t="s">
+      <c r="J114" s="65" t="s">
         <v>151</v>
       </c>
       <c r="K114" s="53">
         <f>K111+K112-K113</f>
-        <v>10843393585.1164</v>
+        <v>10688495537.095491</v>
       </c>
       <c r="L114" s="49"/>
       <c r="M114" s="49"/>
@@ -7289,10 +7310,10 @@
       <c r="Q114" s="49"/>
     </row>
     <row r="115" spans="10:17" ht="20">
-      <c r="J115" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="K115" s="66">
+      <c r="J115" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="K115" s="65">
         <f>I34*(1+(0.02*5))</f>
         <v>75491093.700000003</v>
       </c>
@@ -7304,12 +7325,12 @@
       <c r="Q115" s="49"/>
     </row>
     <row r="116" spans="10:17" ht="20">
-      <c r="J116" s="67" t="s">
+      <c r="J116" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="K116" s="68">
+      <c r="K116" s="67">
         <f>K114/K115</f>
-        <v>143.63805124095586</v>
+        <v>141.5861794183476</v>
       </c>
       <c r="L116" s="49"/>
       <c r="M116" s="49"/>
@@ -7319,12 +7340,12 @@
       <c r="Q116" s="49"/>
     </row>
     <row r="117" spans="10:17" ht="20">
-      <c r="J117" s="66" t="s">
+      <c r="J117" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="K117" s="69" cm="1">
+      <c r="K117" s="68" cm="1">
         <f t="array" ref="K117">_FV(A1,"Price")</f>
-        <v>329</v>
+        <v>365.31</v>
       </c>
       <c r="L117" s="49"/>
       <c r="M117" s="49"/>
@@ -7334,12 +7355,12 @@
       <c r="Q117" s="49"/>
     </row>
     <row r="118" spans="10:17" ht="20">
-      <c r="J118" s="67" t="s">
+      <c r="J118" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="K118" s="70">
+      <c r="K118" s="69">
         <f>K116/K117-1</f>
-        <v>-0.56341017859891829</v>
+        <v>-0.61242183510348036</v>
       </c>
       <c r="L118" s="49"/>
       <c r="M118" s="49"/>
@@ -7349,10 +7370,10 @@
       <c r="Q118" s="49"/>
     </row>
     <row r="119" spans="10:17" ht="20">
-      <c r="J119" s="67" t="s">
+      <c r="J119" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="K119" s="71" t="str">
+      <c r="K119" s="70" t="str">
         <f>IF(K116&gt;K117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/MongoDB.xlsx
+++ b/Technology/Software/MongoDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FB75D8-9181-0349-A97F-491689CADB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B2773F-6D98-8049-96AA-C6E7AE3F48D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1739,6 +1739,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1758,7 +1760,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1771,6 +1773,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1924,12 +1928,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>442.8399</v>
-    <v>142.02000000000001</v>
-    <v>1.2467999999999999</v>
-    <v>19.489999999999998</v>
-    <v>4.6879999999999998E-2</v>
-    <v>2.77</v>
-    <v>6.3639999999999999E-3</v>
+    <v>164.59</v>
+    <v>1.2521</v>
+    <v>-2.4500000000000002</v>
+    <v>-6.3759999999999997E-3</v>
+    <v>-0.28999999999999998</v>
+    <v>-7.5960000000000003E-4</v>
     <v>USD</v>
     <v>MongoDB, Inc. is a developer data platform company. Its developer data platform is an integrated set of databases and related services that allow development teams to address the growing variety of modern application requirements. Its core offerings are MongoDB Atlas and MongoDB Enterprise Advanced. MongoDB Atlas is its managed multi-cloud database-as-a-service offering that includes an integrated set of database and related services. MongoDB Atlas provides customers with a managed offering that includes automated provisioning and healing, comprehensive system monitoring, managed backup and restore, default security and other features. MongoDB Enterprise Advanced is its self-managed commercial offering for enterprise customers that can run in the cloud, on-premises or in a hybrid environment. It provides professional services to its customers, including consulting and training. It has over 40,800 customers spanning a range of industries in more than 100 countries around the world.</v>
     <v>4619</v>
@@ -1937,25 +1941,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1633 Broadway Fl 38, NEW YORK, NY, 10019-6763 US</v>
-    <v>435.7</v>
+    <v>382.17</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.041594282033</v>
+    <v>45269.041528378904</v>
     <v>4</v>
-    <v>414</v>
-    <v>31051318962</v>
+    <v>373.23</v>
+    <v>27238662469</v>
     <v>MONGODB, INC.</v>
     <v>MONGODB, INC.</v>
-    <v>420.03</v>
-    <v>415.74</v>
-    <v>435.23</v>
-    <v>438</v>
+    <v>380.37</v>
+    <v>384.24</v>
+    <v>381.79</v>
+    <v>381.5</v>
     <v>71344620</v>
     <v>MDB</v>
     <v>MONGODB, INC. (XNAS:MDB)</v>
-    <v>1627197</v>
-    <v>1280051</v>
+    <v>3107964</v>
+    <v>1809102</v>
     <v>2007</v>
   </rv>
   <rv s="4">
@@ -11180,7 +11184,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11233,7 +11237,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>31051318962</v>
+        <v>27238662469</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>196</v>
@@ -11261,7 +11265,7 @@
       </c>
       <c r="I3" s="42">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>11410187634.87595</v>
+        <v>11449282878.380814</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>200</v>
@@ -11313,14 +11317,14 @@
       </c>
       <c r="I4" s="52">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>8995406579.6194859</v>
+        <v>9029508922.1170197</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>207</v>
       </c>
       <c r="K4" s="53" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.6879999999999998E-2</v>
+        <v>-6.3759999999999997E-3</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>208</v>
@@ -11344,7 +11348,7 @@
       </c>
       <c r="C5" s="49">
         <f>F14</f>
-        <v>0.12017434620174346</v>
+        <v>0.12990936555891239</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>211</v>
@@ -11365,14 +11369,14 @@
       </c>
       <c r="I5" s="52">
         <f>I4+G5-G6</f>
-        <v>9708536579.6194859</v>
+        <v>9742638922.1170197</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>214</v>
       </c>
       <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>435.23</v>
+        <v>381.79</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>215</v>
@@ -11392,14 +11396,14 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>19.334569714819427</v>
+        <v>16.458406325679757</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>217</v>
       </c>
       <c r="C6" s="49">
         <f>F17</f>
-        <v>0.13542963885429637</v>
+        <v>0.13141993957703926</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>195</v>
@@ -11420,14 +11424,14 @@
       </c>
       <c r="I6" s="53">
         <f>N25</f>
-        <v>9.2374001602766612E-2</v>
+        <v>9.2143943264044709E-2</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>220</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>129.8420079283309</v>
+        <v>130.29809279638761</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>221</v>
@@ -11447,14 +11451,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63">
         <f>O20/F12</f>
-        <v>160.88766301554404</v>
+        <v>126.69145334418604</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>223</v>
       </c>
       <c r="C7" s="65">
         <f>F15/A3</f>
-        <v>7.004533374771367E-3</v>
+        <v>7.9849735737771328E-3</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>224</v>
@@ -11481,7 +11485,7 @@
       </c>
       <c r="K7" s="71">
         <f>K6/K5-1</f>
-        <v>-0.70167036296135166</v>
+        <v>-0.65871790042592104</v>
       </c>
       <c r="L7" s="72" t="s">
         <v>227</v>
@@ -11583,7 +11587,7 @@
         <v>1284040000</v>
       </c>
       <c r="F10" s="84">
-        <v>1606000000</v>
+        <v>1655000000</v>
       </c>
       <c r="G10" s="84">
         <v>1960000000</v>
@@ -11629,11 +11633,11 @@
       </c>
       <c r="F11" s="89">
         <f t="shared" si="0"/>
-        <v>0.25073985234104867</v>
+        <v>0.2889006573003956</v>
       </c>
       <c r="G11" s="88">
         <f t="shared" si="0"/>
-        <v>0.22042341220423411</v>
+        <v>0.18429003021148027</v>
       </c>
       <c r="H11" s="88">
         <f t="shared" si="0"/>
@@ -11649,7 +11653,7 @@
       </c>
       <c r="K11" s="90">
         <f>SUM(F11:J11)/5</f>
-        <v>0.2616465881801347</v>
+        <v>0.26205207277345333</v>
       </c>
       <c r="L11" s="74"/>
       <c r="M11" s="74"/>
@@ -11681,7 +11685,7 @@
         <v>-345398000</v>
       </c>
       <c r="F12" s="92">
-        <v>193000000</v>
+        <v>215000000</v>
       </c>
       <c r="G12" s="84">
         <v>243000000</v>
@@ -11728,11 +11732,11 @@
       </c>
       <c r="F13" s="89">
         <f t="shared" si="1"/>
-        <v>-1.5587756732812581</v>
+        <v>-1.6224703096138366</v>
       </c>
       <c r="G13" s="88">
         <f t="shared" si="1"/>
-        <v>0.2590673575129534</v>
+        <v>0.13023255813953494</v>
       </c>
       <c r="H13" s="88">
         <f t="shared" si="1"/>
@@ -11748,7 +11752,7 @@
       </c>
       <c r="K13" s="90">
         <f>AVERAGE(G13:J13)</f>
-        <v>0.40954618727782977</v>
+        <v>0.37733748743447515</v>
       </c>
       <c r="L13" s="74"/>
       <c r="M13" s="74"/>
@@ -11782,7 +11786,7 @@
       </c>
       <c r="F14" s="95">
         <f t="shared" si="2"/>
-        <v>0.12017434620174346</v>
+        <v>0.12990936555891239</v>
       </c>
       <c r="G14" s="94">
         <f t="shared" si="2"/>
@@ -11808,7 +11812,7 @@
       </c>
       <c r="O14" s="91">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
@@ -11934,7 +11938,7 @@
       </c>
       <c r="F17" s="94">
         <f t="shared" si="4"/>
-        <v>0.13542963885429637</v>
+        <v>0.13141993957703926</v>
       </c>
       <c r="G17" s="94">
         <f t="shared" si="4"/>
@@ -11960,7 +11964,7 @@
       </c>
       <c r="O17" s="100">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="46"/>
       <c r="Q17" s="46"/>
@@ -12043,7 +12047,7 @@
       </c>
       <c r="O20" s="106">
         <f>A3</f>
-        <v>31051318962</v>
+        <v>27238662469</v>
       </c>
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
@@ -12073,7 +12077,7 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>32239289962</v>
+        <v>28426633469</v>
       </c>
       <c r="P21" s="46"/>
       <c r="Q21" s="46"/>
@@ -12101,7 +12105,7 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>3.6848547266402104E-2</v>
+        <v>4.1790773476413023E-2</v>
       </c>
       <c r="P22" s="46"/>
       <c r="Q22" s="46"/>
@@ -12126,7 +12130,7 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.96315145273359792</v>
+        <v>0.95820922652358698</v>
       </c>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
@@ -12170,7 +12174,7 @@
       <c r="M25" s="74"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.2374001602766612E-2</v>
+        <v>9.2143943264044709E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="46"/>
